--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1222"/>
+  <dimension ref="A1:G1349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32122,10 +32122,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1096" t="inlineStr">
-        <is>
-          <t>0111101</t>
-        </is>
+      <c r="B1096" t="n">
+        <v>111101</v>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
@@ -32157,10 +32155,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1097" t="inlineStr">
-        <is>
-          <t>0111201</t>
-        </is>
+      <c r="B1097" t="n">
+        <v>111201</v>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
@@ -32192,10 +32188,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1098" t="inlineStr">
-        <is>
-          <t>0111208</t>
-        </is>
+      <c r="B1098" t="n">
+        <v>111208</v>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
@@ -32227,10 +32221,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1099" t="inlineStr">
-        <is>
-          <t>0111209</t>
-        </is>
+      <c r="B1099" t="n">
+        <v>111209</v>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
@@ -32262,10 +32254,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1100" t="inlineStr">
-        <is>
-          <t>0111301</t>
-        </is>
+      <c r="B1100" t="n">
+        <v>111301</v>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
@@ -32297,10 +32287,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1101" t="inlineStr">
-        <is>
-          <t>0111401</t>
-        </is>
+      <c r="B1101" t="n">
+        <v>111401</v>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
@@ -32332,10 +32320,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1102" t="inlineStr">
-        <is>
-          <t>0111402</t>
-        </is>
+      <c r="B1102" t="n">
+        <v>111402</v>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
@@ -32367,10 +32353,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1103" t="inlineStr">
-        <is>
-          <t>0111404</t>
-        </is>
+      <c r="B1103" t="n">
+        <v>111404</v>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
@@ -32402,10 +32386,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1104" t="inlineStr">
-        <is>
-          <t>0111405</t>
-        </is>
+      <c r="B1104" t="n">
+        <v>111405</v>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
@@ -32437,10 +32419,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1105" t="inlineStr">
-        <is>
-          <t>0111408</t>
-        </is>
+      <c r="B1105" t="n">
+        <v>111408</v>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
@@ -32472,10 +32452,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1106" t="inlineStr">
-        <is>
-          <t>0111411</t>
-        </is>
+      <c r="B1106" t="n">
+        <v>111411</v>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
@@ -32507,10 +32485,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1107" t="inlineStr">
-        <is>
-          <t>0111415</t>
-        </is>
+      <c r="B1107" t="n">
+        <v>111415</v>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
@@ -32542,10 +32518,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1108" t="inlineStr">
-        <is>
-          <t>0111501</t>
-        </is>
+      <c r="B1108" t="n">
+        <v>111501</v>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
@@ -32577,10 +32551,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1109" t="inlineStr">
-        <is>
-          <t>0111502</t>
-        </is>
+      <c r="B1109" t="n">
+        <v>111502</v>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
@@ -32612,10 +32584,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1110" t="inlineStr">
-        <is>
-          <t>0111602</t>
-        </is>
+      <c r="B1110" t="n">
+        <v>111602</v>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
@@ -32647,10 +32617,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>0112201</t>
-        </is>
+      <c r="B1111" t="n">
+        <v>112201</v>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
@@ -32682,10 +32650,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>0112401</t>
-        </is>
+      <c r="B1112" t="n">
+        <v>112401</v>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
@@ -32717,10 +32683,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1113" t="inlineStr">
-        <is>
-          <t>0112501</t>
-        </is>
+      <c r="B1113" t="n">
+        <v>112501</v>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
@@ -32752,10 +32716,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1114" t="inlineStr">
-        <is>
-          <t>0112602</t>
-        </is>
+      <c r="B1114" t="n">
+        <v>112602</v>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
@@ -32787,10 +32749,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1115" t="inlineStr">
-        <is>
-          <t>0112701</t>
-        </is>
+      <c r="B1115" t="n">
+        <v>112701</v>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
@@ -32822,10 +32782,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1116" t="inlineStr">
-        <is>
-          <t>0112702</t>
-        </is>
+      <c r="B1116" t="n">
+        <v>112702</v>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
@@ -32857,10 +32815,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1117" t="inlineStr">
-        <is>
-          <t>0112703</t>
-        </is>
+      <c r="B1117" t="n">
+        <v>112703</v>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
@@ -32892,10 +32848,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1118" t="inlineStr">
-        <is>
-          <t>0112709</t>
-        </is>
+      <c r="B1118" t="n">
+        <v>112709</v>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
@@ -32927,10 +32881,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1119" t="inlineStr">
-        <is>
-          <t>0113101</t>
-        </is>
+      <c r="B1119" t="n">
+        <v>113101</v>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
@@ -32962,10 +32914,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1120" t="inlineStr">
-        <is>
-          <t>0113301</t>
-        </is>
+      <c r="B1120" t="n">
+        <v>113301</v>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
@@ -32997,10 +32947,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1121" t="inlineStr">
-        <is>
-          <t>0114101</t>
-        </is>
+      <c r="B1121" t="n">
+        <v>114101</v>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
@@ -33032,10 +32980,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1122" t="inlineStr">
-        <is>
-          <t>0114301</t>
-        </is>
+      <c r="B1122" t="n">
+        <v>114301</v>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
@@ -33067,10 +33013,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1123" t="inlineStr">
-        <is>
-          <t>0114304</t>
-        </is>
+      <c r="B1123" t="n">
+        <v>114304</v>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
@@ -33102,10 +33046,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1124" t="inlineStr">
-        <is>
-          <t>0114401</t>
-        </is>
+      <c r="B1124" t="n">
+        <v>114401</v>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
@@ -33137,10 +33079,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>0114402</t>
-        </is>
+      <c r="B1125" t="n">
+        <v>114402</v>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
@@ -33172,10 +33112,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1126" t="inlineStr">
-        <is>
-          <t>0114403</t>
-        </is>
+      <c r="B1126" t="n">
+        <v>114403</v>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
@@ -33207,10 +33145,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1127" t="inlineStr">
-        <is>
-          <t>0114404</t>
-        </is>
+      <c r="B1127" t="n">
+        <v>114404</v>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
@@ -33242,10 +33178,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1128" t="inlineStr">
-        <is>
-          <t>0114501</t>
-        </is>
+      <c r="B1128" t="n">
+        <v>114501</v>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
@@ -33277,10 +33211,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1129" t="inlineStr">
-        <is>
-          <t>0115101</t>
-        </is>
+      <c r="B1129" t="n">
+        <v>115101</v>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
@@ -33312,10 +33244,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1130" t="inlineStr">
-        <is>
-          <t>0115201</t>
-        </is>
+      <c r="B1130" t="n">
+        <v>115201</v>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
@@ -33347,10 +33277,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1131" t="inlineStr">
-        <is>
-          <t>0115301</t>
-        </is>
+      <c r="B1131" t="n">
+        <v>115301</v>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
@@ -33382,10 +33310,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1132" t="inlineStr">
-        <is>
-          <t>0115302</t>
-        </is>
+      <c r="B1132" t="n">
+        <v>115302</v>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
@@ -33417,10 +33343,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1133" t="inlineStr">
-        <is>
-          <t>0116101</t>
-        </is>
+      <c r="B1133" t="n">
+        <v>116101</v>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
@@ -33452,10 +33376,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1134" t="inlineStr">
-        <is>
-          <t>0116102</t>
-        </is>
+      <c r="B1134" t="n">
+        <v>116102</v>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
@@ -33487,10 +33409,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>0116105</t>
-        </is>
+      <c r="B1135" t="n">
+        <v>116105</v>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
@@ -33522,10 +33442,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>0116107</t>
-        </is>
+      <c r="B1136" t="n">
+        <v>116107</v>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
@@ -33557,10 +33475,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1137" t="inlineStr">
-        <is>
-          <t>0116110</t>
-        </is>
+      <c r="B1137" t="n">
+        <v>116110</v>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
@@ -33592,10 +33508,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1138" t="inlineStr">
-        <is>
-          <t>0116112</t>
-        </is>
+      <c r="B1138" t="n">
+        <v>116112</v>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
@@ -33627,10 +33541,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>0116121</t>
-        </is>
+      <c r="B1139" t="n">
+        <v>116121</v>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
@@ -33662,10 +33574,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>0116122</t>
-        </is>
+      <c r="B1140" t="n">
+        <v>116122</v>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
@@ -33697,10 +33607,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>0116128</t>
-        </is>
+      <c r="B1141" t="n">
+        <v>116128</v>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
@@ -33732,10 +33640,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>0116130</t>
-        </is>
+      <c r="B1142" t="n">
+        <v>116130</v>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
@@ -33767,10 +33673,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>0116131</t>
-        </is>
+      <c r="B1143" t="n">
+        <v>116131</v>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
@@ -33802,10 +33706,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>0116134</t>
-        </is>
+      <c r="B1144" t="n">
+        <v>116134</v>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
@@ -33837,10 +33739,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>0116135</t>
-        </is>
+      <c r="B1145" t="n">
+        <v>116135</v>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
@@ -33872,10 +33772,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>0116137</t>
-        </is>
+      <c r="B1146" t="n">
+        <v>116137</v>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
@@ -33907,10 +33805,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>0116201</t>
-        </is>
+      <c r="B1147" t="n">
+        <v>116201</v>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
@@ -33942,10 +33838,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>0116202</t>
-        </is>
+      <c r="B1148" t="n">
+        <v>116202</v>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
@@ -33977,10 +33871,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>0116203</t>
-        </is>
+      <c r="B1149" t="n">
+        <v>116203</v>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
@@ -34012,10 +33904,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>0116204</t>
-        </is>
+      <c r="B1150" t="n">
+        <v>116204</v>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
@@ -34047,10 +33937,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>0116206</t>
-        </is>
+      <c r="B1151" t="n">
+        <v>116206</v>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
@@ -34082,10 +33970,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>0116207</t>
-        </is>
+      <c r="B1152" t="n">
+        <v>116207</v>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
@@ -34117,10 +34003,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>0116208</t>
-        </is>
+      <c r="B1153" t="n">
+        <v>116208</v>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
@@ -34152,10 +34036,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>0116209</t>
-        </is>
+      <c r="B1154" t="n">
+        <v>116209</v>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
@@ -34187,10 +34069,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>0116210</t>
-        </is>
+      <c r="B1155" t="n">
+        <v>116210</v>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
@@ -34222,10 +34102,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>0116212</t>
-        </is>
+      <c r="B1156" t="n">
+        <v>116212</v>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
@@ -34257,10 +34135,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>0117114</t>
-        </is>
+      <c r="B1157" t="n">
+        <v>117114</v>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
@@ -34292,10 +34168,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>0117115</t>
-        </is>
+      <c r="B1158" t="n">
+        <v>117115</v>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
@@ -34327,10 +34201,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>0117117</t>
-        </is>
+      <c r="B1159" t="n">
+        <v>117117</v>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
@@ -34362,10 +34234,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>0117121</t>
-        </is>
+      <c r="B1160" t="n">
+        <v>117121</v>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
@@ -34397,10 +34267,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>0117122</t>
-        </is>
+      <c r="B1161" t="n">
+        <v>117122</v>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
@@ -34432,10 +34300,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>0117125</t>
-        </is>
+      <c r="B1162" t="n">
+        <v>117125</v>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
@@ -34467,10 +34333,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>0117130</t>
-        </is>
+      <c r="B1163" t="n">
+        <v>117130</v>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
@@ -34502,10 +34366,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>0117134</t>
-        </is>
+      <c r="B1164" t="n">
+        <v>117134</v>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
@@ -34537,10 +34399,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>0117135</t>
-        </is>
+      <c r="B1165" t="n">
+        <v>117135</v>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
@@ -34572,10 +34432,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>0117139</t>
-        </is>
+      <c r="B1166" t="n">
+        <v>117139</v>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
@@ -34607,10 +34465,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>0117146</t>
-        </is>
+      <c r="B1167" t="n">
+        <v>117146</v>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
@@ -34642,10 +34498,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>0117148</t>
-        </is>
+      <c r="B1168" t="n">
+        <v>117148</v>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
@@ -34677,10 +34531,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>0117150</t>
-        </is>
+      <c r="B1169" t="n">
+        <v>117150</v>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
@@ -34712,10 +34564,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>0117151</t>
-        </is>
+      <c r="B1170" t="n">
+        <v>117151</v>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
@@ -34747,10 +34597,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>0117152</t>
-        </is>
+      <c r="B1171" t="n">
+        <v>117152</v>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
@@ -34782,10 +34630,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>0117153</t>
-        </is>
+      <c r="B1172" t="n">
+        <v>117153</v>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
@@ -34817,10 +34663,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>0117155</t>
-        </is>
+      <c r="B1173" t="n">
+        <v>117155</v>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
@@ -34852,10 +34696,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>0117158</t>
-        </is>
+      <c r="B1174" t="n">
+        <v>117158</v>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
@@ -34887,10 +34729,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>0117160</t>
-        </is>
+      <c r="B1175" t="n">
+        <v>117160</v>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
@@ -34922,10 +34762,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>0117161</t>
-        </is>
+      <c r="B1176" t="n">
+        <v>117161</v>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
@@ -34957,10 +34795,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>0117162</t>
-        </is>
+      <c r="B1177" t="n">
+        <v>117162</v>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
@@ -34992,10 +34828,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>0117164</t>
-        </is>
+      <c r="B1178" t="n">
+        <v>117164</v>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
@@ -35027,10 +34861,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>0117174</t>
-        </is>
+      <c r="B1179" t="n">
+        <v>117174</v>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
@@ -35062,10 +34894,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>0117201</t>
-        </is>
+      <c r="B1180" t="n">
+        <v>117201</v>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
@@ -35097,10 +34927,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>0117401</t>
-        </is>
+      <c r="B1181" t="n">
+        <v>117401</v>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
@@ -35132,10 +34960,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>0117402</t>
-        </is>
+      <c r="B1182" t="n">
+        <v>117402</v>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
@@ -35167,10 +34993,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>0117403</t>
-        </is>
+      <c r="B1183" t="n">
+        <v>117403</v>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
@@ -35202,10 +35026,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>0117501</t>
-        </is>
+      <c r="B1184" t="n">
+        <v>117501</v>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
@@ -35237,10 +35059,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>0117504</t>
-        </is>
+      <c r="B1185" t="n">
+        <v>117504</v>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
@@ -35272,10 +35092,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>0117505</t>
-        </is>
+      <c r="B1186" t="n">
+        <v>117505</v>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
@@ -35307,10 +35125,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>0117506</t>
-        </is>
+      <c r="B1187" t="n">
+        <v>117506</v>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
@@ -35342,10 +35158,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>0117507</t>
-        </is>
+      <c r="B1188" t="n">
+        <v>117507</v>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
@@ -35377,10 +35191,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>0118101</t>
-        </is>
+      <c r="B1189" t="n">
+        <v>118101</v>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
@@ -35412,10 +35224,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>0118102</t>
-        </is>
+      <c r="B1190" t="n">
+        <v>118102</v>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
@@ -35447,10 +35257,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>0118201</t>
-        </is>
+      <c r="B1191" t="n">
+        <v>118201</v>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
@@ -35482,10 +35290,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>0118203</t>
-        </is>
+      <c r="B1192" t="n">
+        <v>118203</v>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
@@ -35517,10 +35323,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>0118204</t>
-        </is>
+      <c r="B1193" t="n">
+        <v>118204</v>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
@@ -35552,10 +35356,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>0118205</t>
-        </is>
+      <c r="B1194" t="n">
+        <v>118205</v>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
@@ -35587,10 +35389,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>0118206</t>
-        </is>
+      <c r="B1195" t="n">
+        <v>118206</v>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
@@ -35622,10 +35422,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>0118302</t>
-        </is>
+      <c r="B1196" t="n">
+        <v>118302</v>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
@@ -35657,10 +35455,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>0118303</t>
-        </is>
+      <c r="B1197" t="n">
+        <v>118303</v>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
@@ -35692,10 +35488,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>0118305</t>
-        </is>
+      <c r="B1198" t="n">
+        <v>118305</v>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
@@ -35727,10 +35521,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>0118311</t>
-        </is>
+      <c r="B1199" t="n">
+        <v>118311</v>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
@@ -35762,10 +35554,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>0118312</t>
-        </is>
+      <c r="B1200" t="n">
+        <v>118312</v>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
@@ -35797,10 +35587,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>0118401</t>
-        </is>
+      <c r="B1201" t="n">
+        <v>118401</v>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
@@ -35832,10 +35620,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>0119001</t>
-        </is>
+      <c r="B1202" t="n">
+        <v>119001</v>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
@@ -35867,10 +35653,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>0119002</t>
-        </is>
+      <c r="B1203" t="n">
+        <v>119002</v>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
@@ -35902,10 +35686,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>0119004</t>
-        </is>
+      <c r="B1204" t="n">
+        <v>119004</v>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
@@ -35937,10 +35719,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>0119005</t>
-        </is>
+      <c r="B1205" t="n">
+        <v>119005</v>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
@@ -35972,10 +35752,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>0119008</t>
-        </is>
+      <c r="B1206" t="n">
+        <v>119008</v>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
@@ -36007,10 +35785,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>0119009</t>
-        </is>
+      <c r="B1207" t="n">
+        <v>119009</v>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
@@ -36042,10 +35818,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>0119012</t>
-        </is>
+      <c r="B1208" t="n">
+        <v>119012</v>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
@@ -36077,10 +35851,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>0119014</t>
-        </is>
+      <c r="B1209" t="n">
+        <v>119014</v>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
@@ -36112,10 +35884,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>0119015</t>
-        </is>
+      <c r="B1210" t="n">
+        <v>119015</v>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
@@ -36147,10 +35917,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>0121101</t>
-        </is>
+      <c r="B1211" t="n">
+        <v>121101</v>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
@@ -36182,10 +35950,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>0121102</t>
-        </is>
+      <c r="B1212" t="n">
+        <v>121102</v>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
@@ -36217,10 +35983,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>0121201</t>
-        </is>
+      <c r="B1213" t="n">
+        <v>121201</v>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
@@ -36252,10 +36016,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>0121202</t>
-        </is>
+      <c r="B1214" t="n">
+        <v>121202</v>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
@@ -36287,10 +36049,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>0121301</t>
-        </is>
+      <c r="B1215" t="n">
+        <v>121301</v>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
@@ -36322,10 +36082,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>0122101</t>
-        </is>
+      <c r="B1216" t="n">
+        <v>122101</v>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
@@ -36357,10 +36115,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>0122102</t>
-        </is>
+      <c r="B1217" t="n">
+        <v>122102</v>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
@@ -36392,10 +36148,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>0122202</t>
-        </is>
+      <c r="B1218" t="n">
+        <v>122202</v>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
@@ -36427,10 +36181,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>0122203</t>
-        </is>
+      <c r="B1219" t="n">
+        <v>122203</v>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
@@ -36462,10 +36214,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>0122204</t>
-        </is>
+      <c r="B1220" t="n">
+        <v>122204</v>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
@@ -36497,10 +36247,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>0122205</t>
-        </is>
+      <c r="B1221" t="n">
+        <v>122205</v>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
@@ -36532,10 +36280,8 @@
           <t>2025-12-03</t>
         </is>
       </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>0122301</t>
-        </is>
+      <c r="B1222" t="n">
+        <v>122301</v>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
@@ -36558,6 +36304,4451 @@
       <c r="G1222" t="inlineStr">
         <is>
           <t>14:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>0111101</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>Pirinç</t>
+        </is>
+      </c>
+      <c r="D1223" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-baldo-pirinc-1-kg-p-f6a53</t>
+        </is>
+      </c>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>0111201</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>Buğday Unu</t>
+        </is>
+      </c>
+      <c r="D1224" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sinangil-tam-bugday-unu-1-kg-p-4c8cdd</t>
+        </is>
+      </c>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>0111208</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Bebek Sütü (Toz Karışım)</t>
+        </is>
+      </c>
+      <c r="D1225" t="n">
+        <v>389.95</v>
+      </c>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/bebelac-bebek-devam-sutu-1-400-g-p-4cec83</t>
+        </is>
+      </c>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>0111209</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Bulgur</t>
+        </is>
+      </c>
+      <c r="D1226" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/torku-pilavlik-bulgur-25-kg-p-1067d5</t>
+        </is>
+      </c>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>0111301</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Ekmek</t>
+        </is>
+      </c>
+      <c r="D1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sofra-ekmek-adet-p-4e2000</t>
+        </is>
+      </c>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>0111401</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Bisküvi</t>
+        </is>
+      </c>
+      <c r="D1228" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ulker-altinbasak-tahil-cipsi-50-g-p-6af7bd</t>
+        </is>
+      </c>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>0111402</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Kraker</t>
+        </is>
+      </c>
+      <c r="D1229" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/wefood-feslegenli-kraker-40-g-p-4cea14</t>
+        </is>
+      </c>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>0111404</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Gofret</t>
+        </is>
+      </c>
+      <c r="D1230" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/eti-karam-gurme-bitter-cikolata-kremali-gofret-3lu-150-g-p-6d5053</t>
+        </is>
+      </c>
+      <c r="G1230" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>0111405</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D1231" t="n">
+        <v>549.9</v>
+      </c>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/yas-pasta-no1-p-4e208a</t>
+        </is>
+      </c>
+      <c r="G1231" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>0111408</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Kek</t>
+        </is>
+      </c>
+      <c r="D1232" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/eti-browni-klasik-cikolatali-findikli-kek-200-g-p-6b47f6</t>
+        </is>
+      </c>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>0111411</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Baklava</t>
+        </is>
+      </c>
+      <c r="D1233" t="n">
+        <v>644.9</v>
+      </c>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/fistikli-baklava-kg-p-4e20d5</t>
+        </is>
+      </c>
+      <c r="G1233" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>0111415</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Ekmek Hamuru (Yufka)</t>
+        </is>
+      </c>
+      <c r="D1234" t="n">
+        <v>169.95</v>
+      </c>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/el-acmasi-yufka-kg-p-4d8032</t>
+        </is>
+      </c>
+      <c r="G1234" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>0111501</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Makarna</t>
+        </is>
+      </c>
+      <c r="D1235" t="n">
+        <v>145.95</v>
+      </c>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/barilla-tagliatelle-makarna-450-g-p-4cc168</t>
+        </is>
+      </c>
+      <c r="G1235" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>0111502</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Şehriye</t>
+        </is>
+      </c>
+      <c r="D1236" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/filiz-arpa-sehriye-500-g-p-4cc1d5</t>
+        </is>
+      </c>
+      <c r="G1236" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>0111602</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Tahıl Gevreği</t>
+        </is>
+      </c>
+      <c r="D1237" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nestle-cheerios-balli-tahil-gevregi-225-g-p-4db053</t>
+        </is>
+      </c>
+      <c r="G1237" t="inlineStr">
+        <is>
+          <t>15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>0112201</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>Dana Eti</t>
+        </is>
+      </c>
+      <c r="D1238" t="n">
+        <v>939.95</v>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/dana-stragonof-kg-but-eti-p-17d9f88</t>
+        </is>
+      </c>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>0112401</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>Kuzu Eti</t>
+        </is>
+      </c>
+      <c r="D1239" t="n">
+        <v>1085.95</v>
+      </c>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kuzu-biftek-kg-but-eti-dilimlenmis-p-16e5d69</t>
+        </is>
+      </c>
+      <c r="G1239" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>0112501</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>Tavuk Eti</t>
+        </is>
+      </c>
+      <c r="D1240" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/banvit-pilic-bonfile-kg-p-2be844b</t>
+        </is>
+      </c>
+      <c r="G1240" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>0112602</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Sakatat</t>
+        </is>
+      </c>
+      <c r="D1241" t="n">
+        <v>759.95</v>
+      </c>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/dana-ciger-kg-p-18ce199</t>
+        </is>
+      </c>
+      <c r="G1241" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>0112701</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Sucuk</t>
+        </is>
+      </c>
+      <c r="D1242" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/namet-dana-kasap-sucuk-250-g-p-d8d1b8</t>
+        </is>
+      </c>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>0112702</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Sosis</t>
+        </is>
+      </c>
+      <c r="D1243" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/banvit-jumbo-sosis-330-g-p-ce0849</t>
+        </is>
+      </c>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>0112703</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Salam</t>
+        </is>
+      </c>
+      <c r="D1244" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/pinar-ac-bitir-hindi-salam-taze-dilimlenmis-10-dilim-75-g-p-d749cc</t>
+        </is>
+      </c>
+      <c r="G1244" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>0112709</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Hazır Et Yemekleri</t>
+        </is>
+      </c>
+      <c r="D1245" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/gurmepack-hunkar-begendi-250-g-p-121eece</t>
+        </is>
+      </c>
+      <c r="G1245" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>0113101</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Balık</t>
+        </is>
+      </c>
+      <c r="D1246" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/super-kartal-tarama-90-g-p-1131eb3</t>
+        </is>
+      </c>
+      <c r="G1246" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>0113301</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Konserve Balık</t>
+        </is>
+      </c>
+      <c r="D1247" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-iri-parcali-ton-baligi-2-x-160-g-p-8a1bec</t>
+        </is>
+      </c>
+      <c r="G1247" t="inlineStr">
+        <is>
+          <t>15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>0114101</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Süt</t>
+        </is>
+      </c>
+      <c r="D1248" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/icim-rahat-laktozsuz-sut-1-l-p-a80012</t>
+        </is>
+      </c>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>0114301</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Yoğurt</t>
+        </is>
+      </c>
+      <c r="D1249" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sutas-kaymaksiz-yogurt-1000-g-p-bebd9c</t>
+        </is>
+      </c>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>0114304</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Hazır Sütlü Tatlılar</t>
+        </is>
+      </c>
+      <c r="D1250" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/eker-supangle-150-g-p-b06b76</t>
+        </is>
+      </c>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>0114401</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>Beyaz Peynir</t>
+        </is>
+      </c>
+      <c r="D1251" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ekici-beyaz-peynir-kg-p-98d9b9</t>
+        </is>
+      </c>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>0114402</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>Kaşar Peyniri</t>
+        </is>
+      </c>
+      <c r="D1252" t="n">
+        <v>430.5</v>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/bahcivan-kasar-peyniri-taze-700-g-p-9a1da1</t>
+        </is>
+      </c>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>0114403</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>Tulum Peyniri</t>
+        </is>
+      </c>
+      <c r="D1253" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ariste-tulum-peyniri-250-g-p-98e0fb</t>
+        </is>
+      </c>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>0114404</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>Krem Peynir</t>
+        </is>
+      </c>
+      <c r="D1254" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/pinar-krem-peynir-300-g-p-9d2b88</t>
+        </is>
+      </c>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>0114501</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>Yumurta</t>
+        </is>
+      </c>
+      <c r="D1255" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/keskinoglu-15li-l-buyuk-boy-yumurta-63-72-g-p-1312d28</t>
+        </is>
+      </c>
+      <c r="G1255" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>0115101</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>Tereyağı (Kahvaltılık)</t>
+        </is>
+      </c>
+      <c r="D1256" t="n">
+        <v>379</v>
+      </c>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-tereyagi-1-kg-p-b75d84</t>
+        </is>
+      </c>
+      <c r="G1256" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>0115201</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>Margarin</t>
+        </is>
+      </c>
+      <c r="D1257" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/luna-tereyagi-lezzeti-kase-margarin-250-g-p-402a66</t>
+        </is>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>0115301</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>Zeytinyağı</t>
+        </is>
+      </c>
+      <c r="D1258" t="n">
+        <v>449.95</v>
+      </c>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1258" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/aivalos-sizma-zeytinyagi-century-750-ml-p-3f05ec</t>
+        </is>
+      </c>
+      <c r="G1258" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>0115302</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>Ayçiçek Yağı</t>
+        </is>
+      </c>
+      <c r="D1259" t="n">
+        <v>384.5</v>
+      </c>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-aycicek-yagi-5-l-koseli-pet-p-3eb728</t>
+        </is>
+      </c>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>0116101</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>Portakal</t>
+        </is>
+      </c>
+      <c r="D1260" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/portakal-kg-p-1a0a047</t>
+        </is>
+      </c>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>0116102</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Üzüm</t>
+        </is>
+      </c>
+      <c r="D1261" t="n">
+        <v>129.95</v>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/uzum-red-globe-kg-p-1a11d4b</t>
+        </is>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>0116105</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Armut</t>
+        </is>
+      </c>
+      <c r="D1262" t="n">
+        <v>129.95</v>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/armut-deveci-kg-p-19c5e68</t>
+        </is>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>0116107</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Ayva</t>
+        </is>
+      </c>
+      <c r="D1263" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1263" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ayva-kg-p-19c71f0</t>
+        </is>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>0116110</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Çilek</t>
+        </is>
+      </c>
+      <c r="D1264" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kiraz-yer-altin-cilek-100-g-p-1a43a48</t>
+        </is>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>0116112</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Elma</t>
+        </is>
+      </c>
+      <c r="D1265" t="n">
+        <v>139.95</v>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/elma-granny-smith-kg-p-19e0448</t>
+        </is>
+      </c>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>0116121</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Karpuz</t>
+        </is>
+      </c>
+      <c r="D1266" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/oneo-karpuz-aromali-draje-sakiz-21-g-p-6ca51e</t>
+        </is>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>0116122</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Kavun</t>
+        </is>
+      </c>
+      <c r="D1267" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kavun-kislik-kg-p-19f2175</t>
+        </is>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>0116128</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Kivi</t>
+        </is>
+      </c>
+      <c r="D1268" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kivi-kg-p-19fcd50</t>
+        </is>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>0116130</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Limon</t>
+        </is>
+      </c>
+      <c r="D1269" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/limon-kg-p-19ff462</t>
+        </is>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>0116131</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Mandalina</t>
+        </is>
+      </c>
+      <c r="D1270" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/mandalina-naturel-kg-p-1a05de4</t>
+        </is>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>0116134</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>Muz</t>
+        </is>
+      </c>
+      <c r="D1271" t="n">
+        <v>119.95</v>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/muz-ithal-kg-p-1a01f58</t>
+        </is>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>0116135</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Nar</t>
+        </is>
+      </c>
+      <c r="D1272" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1272" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nar-kg-p-1a06990</t>
+        </is>
+      </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>0116137</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Şeftali</t>
+        </is>
+      </c>
+      <c r="D1273" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/seftali-kg-p-1a0b7b0?srsltid=AfmBOor77vAwo3SDnOB7SoigtL6hHAAJsb9wos9_2fSF2DqojT_uVR0D</t>
+        </is>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>0116201</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Badem İçi</t>
+        </is>
+      </c>
+      <c r="D1274" t="n">
+        <v>89</v>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kavrulmus-badem-ici-150-g-p-7b4bab</t>
+        </is>
+      </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>0116202</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Ceviz İçi</t>
+        </is>
+      </c>
+      <c r="D1275" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ceviz-ici-kg-p-7b706e</t>
+        </is>
+      </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>0116203</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Fındık İçi</t>
+        </is>
+      </c>
+      <c r="D1276" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kavrulmus-findik-ici-150g-p-7b4ae1</t>
+        </is>
+      </c>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>0116204</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>Antep Fıstığı</t>
+        </is>
+      </c>
+      <c r="D1277" t="n">
+        <v>294.95</v>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/master-nut-kabuklu-antep-fistigi-140-g-p-7b49d9</t>
+        </is>
+      </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>0116206</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Yer Fıstığı</t>
+        </is>
+      </c>
+      <c r="D1278" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-tuzlu-yer-fistigi-180-g-p-7b4947</t>
+        </is>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>0116207</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Leblebi</t>
+        </is>
+      </c>
+      <c r="D1279" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-cifte-kavrulmus-sari-leblebi-200g-p-7b4ab1</t>
+        </is>
+      </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>0116208</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>Ay Çekirdeği</t>
+        </is>
+      </c>
+      <c r="D1280" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-bol-tuzlu-kavrulmus-siyah-aycekirdek-180-g-p-7b716a</t>
+        </is>
+      </c>
+      <c r="G1280" t="inlineStr">
+        <is>
+          <t>15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>0116209</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>Kabak Çekirdeği</t>
+        </is>
+      </c>
+      <c r="D1281" t="n">
+        <v>95.95</v>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-kabak-cekirdegi-180-g-p-7b8e7c</t>
+        </is>
+      </c>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>0116210</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Kuru Üzüm</t>
+        </is>
+      </c>
+      <c r="D1282" t="n">
+        <v>45.95</v>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-sultaniye-kuru-uzum-140-g-p-7b704f</t>
+        </is>
+      </c>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>0116212</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Kuru Kayısı</t>
+        </is>
+      </c>
+      <c r="D1283" t="n">
+        <v>154.95</v>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1283" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-kuru-kayisi-140-g-p-7b703f</t>
+        </is>
+      </c>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>0117114</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Çarliston Biber</t>
+        </is>
+      </c>
+      <c r="D1284" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1284" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/biber-carliston-kg-p-1ac0638</t>
+        </is>
+      </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>0117115</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Dolmalık Biber</t>
+        </is>
+      </c>
+      <c r="D1285" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1285" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/biber-dolmalik-kg-p-1ac0a20</t>
+        </is>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>0117117</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Sivri Biber</t>
+        </is>
+      </c>
+      <c r="D1286" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/biber-sivri-kg-p-1ac11f0</t>
+        </is>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>0117121</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Dereotu</t>
+        </is>
+      </c>
+      <c r="D1287" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/dereotu-adet-p-1ac2969</t>
+        </is>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>0117122</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Domates</t>
+        </is>
+      </c>
+      <c r="D1288" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1288" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/domates-kokteyl-kg-p-1aca278</t>
+        </is>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>0117125</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Taze Fasulye</t>
+        </is>
+      </c>
+      <c r="D1289" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/superfresh-taze-fasulye-450-g-p-1038d63</t>
+        </is>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>0117130</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Havuç</t>
+        </is>
+      </c>
+      <c r="D1290" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1290" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/havuc-beypazari-paket-kg-p-1ad36f9</t>
+        </is>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>0117134</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Ispanak</t>
+        </is>
+      </c>
+      <c r="D1291" t="n">
+        <v>79.95</v>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ispanak-kg-p-1ad6243</t>
+        </is>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>0117135</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Kabak</t>
+        </is>
+      </c>
+      <c r="D1292" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kabak-sakiz-kg-p-1adb000</t>
+        </is>
+      </c>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>0117139</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>Karnabahar</t>
+        </is>
+      </c>
+      <c r="D1293" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1293" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/karnabahar-kg-p-1add710</t>
+        </is>
+      </c>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>0117146</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>Kuru Soğan</t>
+        </is>
+      </c>
+      <c r="D1294" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sogan-kuru-dokme-kg-p-1b1a7a0</t>
+        </is>
+      </c>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>0117148</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Beyaz Lahana</t>
+        </is>
+      </c>
+      <c r="D1295" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lahana-beyaz-kg-p-1ae7350</t>
+        </is>
+      </c>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>0117150</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Kırmızı Lahana</t>
+        </is>
+      </c>
+      <c r="D1296" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lahana-kirmizi-kg-p-1aec170</t>
+        </is>
+      </c>
+      <c r="G1296" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>0117151</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>Mantar</t>
+        </is>
+      </c>
+      <c r="D1297" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kultur-mantari-400-g-paket-p-1aeea13</t>
+        </is>
+      </c>
+      <c r="G1297" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>0117152</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>Kıvırcık</t>
+        </is>
+      </c>
+      <c r="D1298" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/salata-kivircik-adet-p-1b0bd99</t>
+        </is>
+      </c>
+      <c r="G1298" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>0117153</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>Maydanoz</t>
+        </is>
+      </c>
+      <c r="D1299" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/maydanoz-adet-p-1af36a9</t>
+        </is>
+      </c>
+      <c r="G1299" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>0117155</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>Nane</t>
+        </is>
+      </c>
+      <c r="D1300" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nane-adet-p-1af84c9</t>
+        </is>
+      </c>
+      <c r="G1300" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>0117158</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>Patlıcan</t>
+        </is>
+      </c>
+      <c r="D1301" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/patlican-bostan-kg-p-1afd6c8</t>
+        </is>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>0117160</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>Pırasa</t>
+        </is>
+      </c>
+      <c r="D1302" t="n">
+        <v>37.46</v>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-pirasa-paket-kg-p-1b05449</t>
+        </is>
+      </c>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>0117161</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Roka</t>
+        </is>
+      </c>
+      <c r="D1303" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/roka-demet-p-1b06f29</t>
+        </is>
+      </c>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>0117162</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>Salatalık</t>
+        </is>
+      </c>
+      <c r="D1304" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/hiyar-kg-p-1ad3ad0</t>
+        </is>
+      </c>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>0117164</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>Sarımsak</t>
+        </is>
+      </c>
+      <c r="D1305" t="n">
+        <v>204.95</v>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/heinz-sarimsakli-mayonez-400-g-p-89b2e5</t>
+        </is>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>0117174</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>Kırmızı Turp</t>
+        </is>
+      </c>
+      <c r="D1306" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/turp-kirmizi-kg-p-1b26af9</t>
+        </is>
+      </c>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>0117201</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>Patates</t>
+        </is>
+      </c>
+      <c r="D1307" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/patates-kg-p-1afabf4</t>
+        </is>
+      </c>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>0117401</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>Kuru Fasulye</t>
+        </is>
+      </c>
+      <c r="D1308" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/hasata-derinkuyu-kuru-fasulyesi-1-kg-p-f9826</t>
+        </is>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>0117402</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>Nohut</t>
+        </is>
+      </c>
+      <c r="D1309" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-nohut-1000-g-p-100579</t>
+        </is>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>0117403</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Mercimek</t>
+        </is>
+      </c>
+      <c r="D1310" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kirmizi-mercimek-1-kg-p-1053a2</t>
+        </is>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>0117501</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Konserveler</t>
+        </is>
+      </c>
+      <c r="D1311" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-bezelye-konservesi-830-g-p-89dfee</t>
+        </is>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>0117504</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Turşu</t>
+        </is>
+      </c>
+      <c r="D1312" t="n">
+        <v>119.95</v>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/berrak-ankara-cubuk-salatalik-tursusu-350-g-p-f73216</t>
+        </is>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>0117505</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Salça</t>
+        </is>
+      </c>
+      <c r="D1313" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tat-domates-salcasi-1500-g-p-89e068</t>
+        </is>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>0117506</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>Zeytin</t>
+        </is>
+      </c>
+      <c r="D1314" t="n">
+        <v>239</v>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/cem-ayvalik-tas-kirma-zeytin-291-350-adkg-p-f476c2</t>
+        </is>
+      </c>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>0117507</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>Cipsler</t>
+        </is>
+      </c>
+      <c r="D1315" t="n">
+        <v>48.95</v>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lays-kasar-peyniri-ve-izgara-sogan-tadinda-125-g-p-4d84f5</t>
+        </is>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>0118101</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>Toz Şeker</t>
+        </is>
+      </c>
+      <c r="D1316" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-toz-seker-1-kg-p-3281b4</t>
+        </is>
+      </c>
+      <c r="G1316" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>0118102</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>Kesme Şeker</t>
+        </is>
+      </c>
+      <c r="D1317" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1317" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kup-seker-1-kg-p-32afa9</t>
+        </is>
+      </c>
+      <c r="G1317" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>0118201</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>Reçel</t>
+        </is>
+      </c>
+      <c r="D1318" t="n">
+        <v>210</v>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/antalya-recelcisi-7-turuncu-meyve-receli-290-g-p-6b9406</t>
+        </is>
+      </c>
+      <c r="G1318" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>0118203</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>Bal</t>
+        </is>
+      </c>
+      <c r="D1319" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1319" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/balparmak-yuksek-yayla-cicek-bali-460-g-p-6be1cb</t>
+        </is>
+      </c>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>0118204</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>Pekmez</t>
+        </is>
+      </c>
+      <c r="D1320" t="n">
+        <v>297.95</v>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1320" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/koska-pekmez-cam-kavanoz-800-g-p-6c1be5</t>
+        </is>
+      </c>
+      <c r="G1320" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>0118205</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Tahin Helvası</t>
+        </is>
+      </c>
+      <c r="D1321" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/torku-sade-tahin-helvasi-200-g-p-6c097e</t>
+        </is>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>0118206</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>Fındık Ezmesi</t>
+        </is>
+      </c>
+      <c r="D1322" t="n">
+        <v>217.95</v>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/fiskobirlik-findik-ezmesi-180-g-p-6d1e6e</t>
+        </is>
+      </c>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>0118302</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>Çikolata Tablet</t>
+        </is>
+      </c>
+      <c r="D1323" t="n">
+        <v>154.95</v>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/godiva-masterpieces-bitter-cikolata-tablet-86-g-p-6b8f25</t>
+        </is>
+      </c>
+      <c r="G1323" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>0118303</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>Çikolata Krem</t>
+        </is>
+      </c>
+      <c r="D1324" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ulker-hobby-krem-cikolata-350g-p-6d19ef</t>
+        </is>
+      </c>
+      <c r="G1324" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>0118305</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>Lokum</t>
+        </is>
+      </c>
+      <c r="D1325" t="n">
+        <v>493.95</v>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lokum-atolyesi-dubai-sultan-lokumu-250-g-p-6b48e0</t>
+        </is>
+      </c>
+      <c r="G1325" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>0118311</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>Sakız</t>
+        </is>
+      </c>
+      <c r="D1326" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1326" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nazar-damla-sakizi-aromali-sekersiz-sakiz-3lu-21-g-p-6ca5f9</t>
+        </is>
+      </c>
+      <c r="G1326" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>0118312</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>Kağıtlı Şeker</t>
+        </is>
+      </c>
+      <c r="D1327" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1327" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/karisik-meyve-aromali-mini-akide-sekeri-250-g-p-7b4c53</t>
+        </is>
+      </c>
+      <c r="G1327" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>0118401</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Dondurma</t>
+        </is>
+      </c>
+      <c r="D1328" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1328" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/algida-usta-usulu-cifte-dovulmus-sade-dondurma-500-ml-p-b08bf4</t>
+        </is>
+      </c>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>0119001</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Baharat</t>
+        </is>
+      </c>
+      <c r="D1329" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1329" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-karabiber-75-g-p-5bb597</t>
+        </is>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>0119002</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Tuz</t>
+        </is>
+      </c>
+      <c r="D1330" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1330" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/billur-tuz-rafine-iyotlu-sofra-tuzu-750-g-p-5bdfee</t>
+        </is>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>0119004</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Kabartma Maddeleri</t>
+        </is>
+      </c>
+      <c r="D1331" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1331" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/droetker-hamur-kabartma-tozu-10lu-paket-100-g-p-5c7d69</t>
+        </is>
+      </c>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>0119005</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Sirke</t>
+        </is>
+      </c>
+      <c r="D1332" t="n">
+        <v>166.95</v>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1332" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kuhne-balsamik-sirke-250-ml-p-5c07d0</t>
+        </is>
+      </c>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>0119008</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>Ketçap</t>
+        </is>
+      </c>
+      <c r="D1333" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1333" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tat-ketcap-pickle-390-g-p-f890fb</t>
+        </is>
+      </c>
+      <c r="G1333" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>0119009</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Mayonez</t>
+        </is>
+      </c>
+      <c r="D1334" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1334" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/hellmanns-mayonez-385-g-p-89a292</t>
+        </is>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>0119012</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Tahin</t>
+        </is>
+      </c>
+      <c r="D1335" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1335" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-tahin-600-g-p-6c08e7</t>
+        </is>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>0119014</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Hazır Çorbalar</t>
+        </is>
+      </c>
+      <c r="D1336" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1336" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/knorr-hazir-corba-mercimek-76-g-p-4c99ce</t>
+        </is>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>0119015</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Hazır Pakette Toz Tatlılar (Puding)</t>
+        </is>
+      </c>
+      <c r="D1337" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1337" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/droetker-vanilyali-puding-toz-karisimi-120-g-p-6c574f</t>
+        </is>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>0121101</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>Kahve</t>
+        </is>
+      </c>
+      <c r="D1338" t="n">
+        <v>83.45</v>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1338" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kurukahveci-mehmet-efendi-turk-kahvesi-100-g-p-310151</t>
+        </is>
+      </c>
+      <c r="G1338" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>0121102</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>Hazır Kahve</t>
+        </is>
+      </c>
+      <c r="D1339" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1339" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nescafe-3u-1-arada-original-175-g-p-312b30</t>
+        </is>
+      </c>
+      <c r="G1339" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>0121201</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Çay</t>
+        </is>
+      </c>
+      <c r="D1340" t="n">
+        <v>295.95</v>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1340" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/caykur-tiryaki-cayi-1-kg-p-2f7993</t>
+        </is>
+      </c>
+      <c r="G1340" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>0121202</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>Bitki ve Meyve Çayı (Poşet)</t>
+        </is>
+      </c>
+      <c r="D1341" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1341" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/teekanne-papatya-ve-balli-bitki-cayi-20li-30-g-p-2fc2ae</t>
+        </is>
+      </c>
+      <c r="G1341" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>0121301</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>Kakao</t>
+        </is>
+      </c>
+      <c r="D1342" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1342" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kakao-50-g-p-4cef00</t>
+        </is>
+      </c>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>0122101</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="D1343" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1343" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/abant-dogal-kaynak-suyu-5-l-p-7afd20</t>
+        </is>
+      </c>
+      <c r="G1343" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>0122102</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>Maden Suyu ve Sodası</t>
+        </is>
+      </c>
+      <c r="D1344" t="n">
+        <v>121.95</v>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1344" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/avoya-blend-visne-limon-maden-suyu-4-x-250-ml-p-7ac063</t>
+        </is>
+      </c>
+      <c r="G1344" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>0122202</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>Gazoz</t>
+        </is>
+      </c>
+      <c r="D1345" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1345" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1345" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/camlica-gazoz-15-l-p-7a9c48</t>
+        </is>
+      </c>
+      <c r="G1345" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>0122203</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>Kola</t>
+        </is>
+      </c>
+      <c r="D1346" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1346" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1346" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/coca-cola-orijinal-tat-pet-1-l-p-7a3bcc</t>
+        </is>
+      </c>
+      <c r="G1346" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>0122204</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>Soğuk Çay</t>
+        </is>
+      </c>
+      <c r="D1347" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="E1347" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1347" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/zuber-seftali-aromali-cayli-icecek-250-ml-p-7ad727</t>
+        </is>
+      </c>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>0122205</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayran </t>
+        </is>
+      </c>
+      <c r="D1348" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1348" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1348" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sutas-200-ml-ayran-p-2bebd3b</t>
+        </is>
+      </c>
+      <c r="G1348" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>0122301</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Meyve Suyu</t>
+        </is>
+      </c>
+      <c r="D1349" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="E1349" t="inlineStr">
+        <is>
+          <t>Migros Safe</t>
+        </is>
+      </c>
+      <c r="F1349" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tamek-100-karisik-meyve-suyu-1-lt-p-7af8f1</t>
+        </is>
+      </c>
+      <c r="G1349" t="inlineStr">
+        <is>
+          <t>15:29</t>
         </is>
       </c>
     </row>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatih\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1820725-D8F3-44D1-B857-20FA0EEB3BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08FEFC-E43A-42F9-93BE-A412D5D4807E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-720" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiyat_Log" sheetId="1" r:id="rId1"/>
@@ -4004,8 +4004,8 @@
   </sheetPr>
   <dimension ref="A1:F1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,7 +5806,7 @@
         <v>273</v>
       </c>
       <c r="D90">
-        <v>255</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\B146\Enflasyon Çalışması\Yeni Model Çalışması\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB3EBE-4A70-4E72-96BD-466EBB640E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082833F0-6234-4CEE-83E6-FE024E4E1BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-420" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiyat_Log" sheetId="1" r:id="rId1"/>
@@ -4010,8 +4010,8 @@
   </sheetPr>
   <dimension ref="A1:F1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1127" workbookViewId="0">
-      <selection activeCell="C1113" sqref="C1113"/>
+    <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
+      <selection activeCell="D1106" sqref="D1106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4792,7 +4792,7 @@
         <v>120</v>
       </c>
       <c r="D39">
-        <v>119.95</v>
+        <v>52.95</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -4992,7 +4992,7 @@
         <v>150</v>
       </c>
       <c r="D49">
-        <v>149.94999999999999</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -5032,7 +5032,7 @@
         <v>156</v>
       </c>
       <c r="D51">
-        <v>149.94999999999999</v>
+        <v>89.25</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -5471,8 +5471,8 @@
       <c r="C73" t="s">
         <v>222</v>
       </c>
-      <c r="D73">
-        <v>49.95</v>
+      <c r="D73" s="2">
+        <v>13.95</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -5491,8 +5491,8 @@
       <c r="C74" t="s">
         <v>225</v>
       </c>
-      <c r="D74">
-        <v>74.95</v>
+      <c r="D74" s="2">
+        <v>24.95</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -5732,7 +5732,7 @@
         <v>261</v>
       </c>
       <c r="D86">
-        <v>59.95</v>
+        <v>19.95</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -12890,7 +12890,7 @@
         <v>120</v>
       </c>
       <c r="D446">
-        <v>119.95</v>
+        <v>52.95</v>
       </c>
       <c r="E446" t="s">
         <v>9</v>
@@ -13089,8 +13089,8 @@
       <c r="C456" t="s">
         <v>150</v>
       </c>
-      <c r="D456">
-        <v>69.95</v>
+      <c r="D456" s="2">
+        <v>32.950000000000003</v>
       </c>
       <c r="E456" t="s">
         <v>9</v>
@@ -13130,7 +13130,7 @@
         <v>156</v>
       </c>
       <c r="D458">
-        <v>149.94999999999999</v>
+        <v>89.25</v>
       </c>
       <c r="E458" t="s">
         <v>9</v>
@@ -13569,8 +13569,8 @@
       <c r="C480" t="s">
         <v>222</v>
       </c>
-      <c r="D480">
-        <v>49.95</v>
+      <c r="D480" s="2">
+        <v>13.95</v>
       </c>
       <c r="E480" t="s">
         <v>9</v>
@@ -13589,8 +13589,8 @@
       <c r="C481" t="s">
         <v>225</v>
       </c>
-      <c r="D481">
-        <v>74.95</v>
+      <c r="D481" s="2">
+        <v>24.95</v>
       </c>
       <c r="E481" t="s">
         <v>9</v>
@@ -13830,7 +13830,7 @@
         <v>261</v>
       </c>
       <c r="D493">
-        <v>59.95</v>
+        <v>19.95</v>
       </c>
       <c r="E493" t="s">
         <v>9</v>
@@ -28360,7 +28360,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D81559-2836-4063-A5C3-CBB9300EBFA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A606C7F4-5A16-4DE7-B920-BC5142B42F21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\vb41981\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8268C223-665A-4944-AD07-7A383338292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5031AC4-FA88-455F-A41B-C46EBC2C6934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5653" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7053" uniqueCount="1219">
   <si>
     <t>Tarih</t>
   </si>
@@ -2842,6 +2842,846 @@
   </si>
   <si>
     <t>https://www.migros.com.tr/olips-orman-meyveleri-aromali-28-g-p-6c81b9</t>
+  </si>
+  <si>
+    <t>0211001</t>
+  </si>
+  <si>
+    <t>0211002</t>
+  </si>
+  <si>
+    <t>0211006</t>
+  </si>
+  <si>
+    <t>0212101</t>
+  </si>
+  <si>
+    <t>0213001</t>
+  </si>
+  <si>
+    <t>0220100</t>
+  </si>
+  <si>
+    <t>0312104</t>
+  </si>
+  <si>
+    <t>0312106</t>
+  </si>
+  <si>
+    <t>0312108</t>
+  </si>
+  <si>
+    <t>0312109</t>
+  </si>
+  <si>
+    <t>0312110</t>
+  </si>
+  <si>
+    <t>0312112</t>
+  </si>
+  <si>
+    <t>0312115</t>
+  </si>
+  <si>
+    <t>0312116</t>
+  </si>
+  <si>
+    <t>0312117</t>
+  </si>
+  <si>
+    <t>0312120</t>
+  </si>
+  <si>
+    <t>0312122</t>
+  </si>
+  <si>
+    <t>0312125</t>
+  </si>
+  <si>
+    <t>0312130</t>
+  </si>
+  <si>
+    <t>0312204</t>
+  </si>
+  <si>
+    <t>0312206</t>
+  </si>
+  <si>
+    <t>0312213</t>
+  </si>
+  <si>
+    <t>0312214</t>
+  </si>
+  <si>
+    <t>0312215</t>
+  </si>
+  <si>
+    <t>0312216</t>
+  </si>
+  <si>
+    <t>0312217</t>
+  </si>
+  <si>
+    <t>0312219</t>
+  </si>
+  <si>
+    <t>0312222</t>
+  </si>
+  <si>
+    <t>0312223</t>
+  </si>
+  <si>
+    <t>0312224</t>
+  </si>
+  <si>
+    <t>0312228</t>
+  </si>
+  <si>
+    <t>0312230</t>
+  </si>
+  <si>
+    <t>0312235</t>
+  </si>
+  <si>
+    <t>0312237</t>
+  </si>
+  <si>
+    <t>0312242</t>
+  </si>
+  <si>
+    <t>0312303</t>
+  </si>
+  <si>
+    <t>0312313</t>
+  </si>
+  <si>
+    <t>0312315</t>
+  </si>
+  <si>
+    <t>0312318</t>
+  </si>
+  <si>
+    <t>0312322</t>
+  </si>
+  <si>
+    <t>0312323</t>
+  </si>
+  <si>
+    <t>0312326</t>
+  </si>
+  <si>
+    <t>0312328</t>
+  </si>
+  <si>
+    <t>0312329</t>
+  </si>
+  <si>
+    <t>0312332</t>
+  </si>
+  <si>
+    <t>0312336</t>
+  </si>
+  <si>
+    <t>0312403</t>
+  </si>
+  <si>
+    <t>0312409</t>
+  </si>
+  <si>
+    <t>0312410</t>
+  </si>
+  <si>
+    <t>0313001</t>
+  </si>
+  <si>
+    <t>0313006</t>
+  </si>
+  <si>
+    <t>0313012</t>
+  </si>
+  <si>
+    <t>0313014</t>
+  </si>
+  <si>
+    <t>0314005</t>
+  </si>
+  <si>
+    <t>0314007</t>
+  </si>
+  <si>
+    <t>0321101</t>
+  </si>
+  <si>
+    <t>0321102</t>
+  </si>
+  <si>
+    <t>0321104</t>
+  </si>
+  <si>
+    <t>0321201</t>
+  </si>
+  <si>
+    <t>0321202</t>
+  </si>
+  <si>
+    <t>0321204</t>
+  </si>
+  <si>
+    <t>0321206</t>
+  </si>
+  <si>
+    <t>0321302</t>
+  </si>
+  <si>
+    <t>0321304</t>
+  </si>
+  <si>
+    <t>0322001</t>
+  </si>
+  <si>
+    <t>0322002</t>
+  </si>
+  <si>
+    <t>0411101</t>
+  </si>
+  <si>
+    <t>0431001</t>
+  </si>
+  <si>
+    <t>0431002</t>
+  </si>
+  <si>
+    <t>0431006</t>
+  </si>
+  <si>
+    <t>0431008</t>
+  </si>
+  <si>
+    <t>0441001</t>
+  </si>
+  <si>
+    <t>0451001</t>
+  </si>
+  <si>
+    <t>0452101</t>
+  </si>
+  <si>
+    <t>0452102</t>
+  </si>
+  <si>
+    <t>0452201</t>
+  </si>
+  <si>
+    <t>0454001</t>
+  </si>
+  <si>
+    <t>0454002</t>
+  </si>
+  <si>
+    <t>0511102</t>
+  </si>
+  <si>
+    <t>0511105</t>
+  </si>
+  <si>
+    <t>0511201</t>
+  </si>
+  <si>
+    <t>0511204</t>
+  </si>
+  <si>
+    <t>0511205</t>
+  </si>
+  <si>
+    <t>0511207</t>
+  </si>
+  <si>
+    <t>0511208</t>
+  </si>
+  <si>
+    <t>0511301</t>
+  </si>
+  <si>
+    <t>0511302</t>
+  </si>
+  <si>
+    <t>0511307</t>
+  </si>
+  <si>
+    <t>0512001</t>
+  </si>
+  <si>
+    <t>0520001</t>
+  </si>
+  <si>
+    <t>0520002</t>
+  </si>
+  <si>
+    <t>0520003</t>
+  </si>
+  <si>
+    <t>0520007</t>
+  </si>
+  <si>
+    <t>0520010</t>
+  </si>
+  <si>
+    <t>0520012</t>
+  </si>
+  <si>
+    <t>0520013</t>
+  </si>
+  <si>
+    <t>0520014</t>
+  </si>
+  <si>
+    <t>0520015</t>
+  </si>
+  <si>
+    <t>0520025</t>
+  </si>
+  <si>
+    <t>0531102</t>
+  </si>
+  <si>
+    <t>0531104</t>
+  </si>
+  <si>
+    <t>0531201</t>
+  </si>
+  <si>
+    <t>0531202</t>
+  </si>
+  <si>
+    <t>0531301</t>
+  </si>
+  <si>
+    <t>0531302</t>
+  </si>
+  <si>
+    <t>0531303</t>
+  </si>
+  <si>
+    <t>0531401</t>
+  </si>
+  <si>
+    <t>0531403</t>
+  </si>
+  <si>
+    <t>0531406</t>
+  </si>
+  <si>
+    <t>0531409</t>
+  </si>
+  <si>
+    <t>0531501</t>
+  </si>
+  <si>
+    <t>0532001</t>
+  </si>
+  <si>
+    <t>0532002</t>
+  </si>
+  <si>
+    <t>0532003</t>
+  </si>
+  <si>
+    <t>0532004</t>
+  </si>
+  <si>
+    <t>0533001</t>
+  </si>
+  <si>
+    <t>0540102</t>
+  </si>
+  <si>
+    <t>0540104</t>
+  </si>
+  <si>
+    <t>0540201</t>
+  </si>
+  <si>
+    <t>0540301</t>
+  </si>
+  <si>
+    <t>0540302</t>
+  </si>
+  <si>
+    <t>0540312</t>
+  </si>
+  <si>
+    <t>0552103</t>
+  </si>
+  <si>
+    <t>0552104</t>
+  </si>
+  <si>
+    <t>0552203</t>
+  </si>
+  <si>
+    <t>0552204</t>
+  </si>
+  <si>
+    <t>0561101</t>
+  </si>
+  <si>
+    <t>0561102</t>
+  </si>
+  <si>
+    <t>0561103</t>
+  </si>
+  <si>
+    <t>0561201</t>
+  </si>
+  <si>
+    <t>0561202</t>
+  </si>
+  <si>
+    <t>0561203</t>
+  </si>
+  <si>
+    <t>0561204</t>
+  </si>
+  <si>
+    <t>0562104</t>
+  </si>
+  <si>
+    <t>0562202</t>
+  </si>
+  <si>
+    <t>0611001</t>
+  </si>
+  <si>
+    <t>0612002</t>
+  </si>
+  <si>
+    <t>0613101</t>
+  </si>
+  <si>
+    <t>0613102</t>
+  </si>
+  <si>
+    <t>0613201</t>
+  </si>
+  <si>
+    <t>0621201</t>
+  </si>
+  <si>
+    <t>0622001</t>
+  </si>
+  <si>
+    <t>0622002</t>
+  </si>
+  <si>
+    <t>0622007</t>
+  </si>
+  <si>
+    <t>0623101</t>
+  </si>
+  <si>
+    <t>0623102</t>
+  </si>
+  <si>
+    <t>0623105</t>
+  </si>
+  <si>
+    <t>0623108</t>
+  </si>
+  <si>
+    <t>0630002</t>
+  </si>
+  <si>
+    <t>0630003</t>
+  </si>
+  <si>
+    <t>0630004</t>
+  </si>
+  <si>
+    <t>0711101</t>
+  </si>
+  <si>
+    <t>0711301</t>
+  </si>
+  <si>
+    <t>0711302</t>
+  </si>
+  <si>
+    <t>0712001</t>
+  </si>
+  <si>
+    <t>0713001</t>
+  </si>
+  <si>
+    <t>0721001</t>
+  </si>
+  <si>
+    <t>0721003</t>
+  </si>
+  <si>
+    <t>0722001</t>
+  </si>
+  <si>
+    <t>0722002</t>
+  </si>
+  <si>
+    <t>0722003</t>
+  </si>
+  <si>
+    <t>0722004</t>
+  </si>
+  <si>
+    <t>0723001</t>
+  </si>
+  <si>
+    <t>0723002</t>
+  </si>
+  <si>
+    <t>0724001</t>
+  </si>
+  <si>
+    <t>0724005</t>
+  </si>
+  <si>
+    <t>0724006</t>
+  </si>
+  <si>
+    <t>0724008</t>
+  </si>
+  <si>
+    <t>0724009</t>
+  </si>
+  <si>
+    <t>0731101</t>
+  </si>
+  <si>
+    <t>0731102</t>
+  </si>
+  <si>
+    <t>0731104</t>
+  </si>
+  <si>
+    <t>0731201</t>
+  </si>
+  <si>
+    <t>0732101</t>
+  </si>
+  <si>
+    <t>0732104</t>
+  </si>
+  <si>
+    <t>0732105</t>
+  </si>
+  <si>
+    <t>0732201</t>
+  </si>
+  <si>
+    <t>0732301</t>
+  </si>
+  <si>
+    <t>0733001</t>
+  </si>
+  <si>
+    <t>0734001</t>
+  </si>
+  <si>
+    <t>0736002</t>
+  </si>
+  <si>
+    <t>0736003</t>
+  </si>
+  <si>
+    <t>0810002</t>
+  </si>
+  <si>
+    <t>0820001</t>
+  </si>
+  <si>
+    <t>0820002</t>
+  </si>
+  <si>
+    <t>0820003</t>
+  </si>
+  <si>
+    <t>0830001</t>
+  </si>
+  <si>
+    <t>0830004</t>
+  </si>
+  <si>
+    <t>0830008</t>
+  </si>
+  <si>
+    <t>0830009</t>
+  </si>
+  <si>
+    <t>0911101</t>
+  </si>
+  <si>
+    <t>0913001</t>
+  </si>
+  <si>
+    <t>0913008</t>
+  </si>
+  <si>
+    <t>0913011</t>
+  </si>
+  <si>
+    <t>0915001</t>
+  </si>
+  <si>
+    <t>0915002</t>
+  </si>
+  <si>
+    <t>0922001</t>
+  </si>
+  <si>
+    <t>0931003</t>
+  </si>
+  <si>
+    <t>0931006</t>
+  </si>
+  <si>
+    <t>0932002</t>
+  </si>
+  <si>
+    <t>0934002</t>
+  </si>
+  <si>
+    <t>0935001</t>
+  </si>
+  <si>
+    <t>0941001</t>
+  </si>
+  <si>
+    <t>0941002</t>
+  </si>
+  <si>
+    <t>0941006</t>
+  </si>
+  <si>
+    <t>0942105</t>
+  </si>
+  <si>
+    <t>0942203</t>
+  </si>
+  <si>
+    <t>0942204</t>
+  </si>
+  <si>
+    <t>0942205</t>
+  </si>
+  <si>
+    <t>0943000</t>
+  </si>
+  <si>
+    <t>0951002</t>
+  </si>
+  <si>
+    <t>0951003</t>
+  </si>
+  <si>
+    <t>0951004</t>
+  </si>
+  <si>
+    <t>0952001</t>
+  </si>
+  <si>
+    <t>0952002</t>
+  </si>
+  <si>
+    <t>0954001</t>
+  </si>
+  <si>
+    <t>0954003</t>
+  </si>
+  <si>
+    <t>0954004</t>
+  </si>
+  <si>
+    <t>0954005</t>
+  </si>
+  <si>
+    <t>0954010</t>
+  </si>
+  <si>
+    <t>0960002</t>
+  </si>
+  <si>
+    <t>0960003</t>
+  </si>
+  <si>
+    <t>0960005</t>
+  </si>
+  <si>
+    <t>0960008</t>
+  </si>
+  <si>
+    <t>0960009</t>
+  </si>
+  <si>
+    <t>1010002</t>
+  </si>
+  <si>
+    <t>1020002</t>
+  </si>
+  <si>
+    <t>1040001</t>
+  </si>
+  <si>
+    <t>1040002</t>
+  </si>
+  <si>
+    <t>1050001</t>
+  </si>
+  <si>
+    <t>1110101</t>
+  </si>
+  <si>
+    <t>1110102</t>
+  </si>
+  <si>
+    <t>1110103</t>
+  </si>
+  <si>
+    <t>1110104</t>
+  </si>
+  <si>
+    <t>1110105</t>
+  </si>
+  <si>
+    <t>1110106</t>
+  </si>
+  <si>
+    <t>1110108</t>
+  </si>
+  <si>
+    <t>1110110</t>
+  </si>
+  <si>
+    <t>1110113</t>
+  </si>
+  <si>
+    <t>1110115</t>
+  </si>
+  <si>
+    <t>1110201</t>
+  </si>
+  <si>
+    <t>1110202</t>
+  </si>
+  <si>
+    <t>1110204</t>
+  </si>
+  <si>
+    <t>1110206</t>
+  </si>
+  <si>
+    <t>1120101</t>
+  </si>
+  <si>
+    <t>1120204</t>
+  </si>
+  <si>
+    <t>1211101</t>
+  </si>
+  <si>
+    <t>1211201</t>
+  </si>
+  <si>
+    <t>1211202</t>
+  </si>
+  <si>
+    <t>1212003</t>
+  </si>
+  <si>
+    <t>1213001</t>
+  </si>
+  <si>
+    <t>1213002</t>
+  </si>
+  <si>
+    <t>1213005</t>
+  </si>
+  <si>
+    <t>1213006</t>
+  </si>
+  <si>
+    <t>1213007</t>
+  </si>
+  <si>
+    <t>1213008</t>
+  </si>
+  <si>
+    <t>1213009</t>
+  </si>
+  <si>
+    <t>1213010</t>
+  </si>
+  <si>
+    <t>1213011</t>
+  </si>
+  <si>
+    <t>1213013</t>
+  </si>
+  <si>
+    <t>1213014</t>
+  </si>
+  <si>
+    <t>1213015</t>
+  </si>
+  <si>
+    <t>1213017</t>
+  </si>
+  <si>
+    <t>1213018</t>
+  </si>
+  <si>
+    <t>1231001</t>
+  </si>
+  <si>
+    <t>1231005</t>
+  </si>
+  <si>
+    <t>1232101</t>
+  </si>
+  <si>
+    <t>1232104</t>
+  </si>
+  <si>
+    <t>1232106</t>
+  </si>
+  <si>
+    <t>1232203</t>
+  </si>
+  <si>
+    <t>1232204</t>
+  </si>
+  <si>
+    <t>1240001</t>
+  </si>
+  <si>
+    <t>1252001</t>
+  </si>
+  <si>
+    <t>1253002</t>
+  </si>
+  <si>
+    <t>1254001</t>
+  </si>
+  <si>
+    <t>1262006</t>
+  </si>
+  <si>
+    <t>1270001</t>
+  </si>
+  <si>
+    <t>1270002</t>
+  </si>
+  <si>
+    <t>1270006</t>
+  </si>
+  <si>
+    <t>1270008</t>
   </si>
 </sst>
 </file>
@@ -3207,13 +4047,16 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G1349"/>
+  <dimension ref="A1:G1629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1254" workbookViewId="0">
-      <selection activeCell="L1265" sqref="L1265"/>
+    <sheetView tabSelected="1" topLeftCell="A1244" workbookViewId="0">
+      <selection activeCell="F1256" sqref="F1256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -30457,6 +31300,5558 @@
       </c>
       <c r="G1349" t="s">
         <v>933</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>939</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1350">
+        <v>1450</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>940</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1351">
+        <v>575</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1352">
+        <v>775</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>942</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1353">
+        <v>1080</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>943</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1354">
+        <v>85</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>944</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1355">
+        <v>105</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>946</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1357">
+        <v>1486.5666666666671</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>947</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1358">
+        <v>4660.32</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1359">
+        <v>3113.33</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1360">
+        <v>2006.4625000000001</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1361" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>950</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1361">
+        <v>665.66666666666663</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1362" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>951</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1362">
+        <v>12622.49</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1363" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1363">
+        <v>1058.8900000000001</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1364" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1364">
+        <v>618.89</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1365" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>954</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1365">
+        <v>2726.2666666666669</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1366" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>955</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1366">
+        <v>1509.2212500000001</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1367" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1367">
+        <v>785.43624999999997</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1368" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>957</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1368">
+        <v>132.73750000000001</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1369" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>958</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1369">
+        <v>945</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1370" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1370">
+        <v>7583.3250000000007</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1371" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>960</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1371">
+        <v>1069.73</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1372" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>961</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1372">
+        <v>2315.0766666666659</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1373" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>962</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1373">
+        <v>2465.496666666666</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1374" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1374">
+        <v>1486.1324999999999</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1375" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1375">
+        <v>683.91</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1376" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1376">
+        <v>2469.9050000000002</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1377" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>966</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1377">
+        <v>834.61333333333334</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1378" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>967</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1378">
+        <v>1048.7833333333331</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1379" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>968</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1379">
+        <v>1307.35625</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1380" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>969</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1380">
+        <v>403.2</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1381" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>970</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1381">
+        <v>3061.1</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1382" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>971</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1382">
+        <v>852.33333333333337</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1383" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>972</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1383">
+        <v>382.93999999999988</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1384" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>973</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1384">
+        <v>174.83333333333329</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1385" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>974</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1385">
+        <v>945</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1386" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1386">
+        <v>399.99</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1387" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>976</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1387">
+        <v>699.99</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1388" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>977</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1388">
+        <v>289.99</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1389" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1389">
+        <v>279.99</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1390" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>979</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1390">
+        <v>719.99000000000012</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1391" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1391">
+        <v>699</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1392" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>981</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1392">
+        <v>895.09</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1393" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>982</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1393">
+        <v>829</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1394" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>983</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1394">
+        <v>349.89999999999992</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1395" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1395">
+        <v>280.19</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1396" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>985</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1396">
+        <v>155.66</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1397" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>986</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1397">
+        <v>349.34</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1398" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1398">
+        <v>1573.333333333333</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1399" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>988</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1399">
+        <v>297.89499999999998</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1400" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>989</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1400">
+        <v>209</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1401" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1401">
+        <v>872.99</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1402" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>991</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1402">
+        <v>1997.116666666667</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1403" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>992</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1403">
+        <v>195</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1404" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>993</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1404">
+        <v>239</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1405" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>994</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1405">
+        <v>1563.75</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1406" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1406">
+        <v>5867.34</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1407" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1407">
+        <v>1785.1524999999999</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1408" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>997</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1408">
+        <v>1880.55</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1409" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1409">
+        <v>3470</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1410" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1410">
+        <v>2864.2125000000001</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1411" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1411">
+        <v>1963.498333333333</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1412" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1412">
+        <v>1589.556</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1413" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1413">
+        <v>847.32749999999999</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1414" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1414">
+        <v>200</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1415" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1415">
+        <v>250</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1416" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1416">
+        <v>30</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1417" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1417">
+        <v>892.83749999999998</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1418" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1418">
+        <v>486.27249999999998</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1419" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1419">
+        <v>191.65666666666669</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1420" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1420">
+        <v>922.94799999999998</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1421" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1421">
+        <v>52</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1422" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1422">
+        <v>2.59</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1423" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1423">
+        <v>1.5870764100000001</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1424" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1424">
+        <v>0.90773327000000004</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1425" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1425">
+        <v>406.88</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1426" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1426">
+        <v>566.11666666666667</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1427" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1427">
+        <v>775.45624999999995</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1428" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1428">
+        <v>1842.86</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1429" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1429">
+        <v>817.18000000000006</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1430" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1430">
+        <v>36199</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1431" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1431">
+        <v>3902.043333333334</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1432" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1432">
+        <v>8499</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1433" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1433">
+        <v>26033.75</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1434" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1434">
+        <v>16578</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1435" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1435">
+        <v>6500</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1436" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1436">
+        <v>3184.934999999999</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1437" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1437">
+        <v>968.92</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1438" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1438">
+        <v>598</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1439" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1439">
+        <v>313.55</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1440" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1440">
+        <v>702.2650000000001</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1441" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1441">
+        <v>680</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1442" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1442">
+        <v>777.95499999999993</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1443" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1443">
+        <v>2049.9</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1444" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1444">
+        <v>549.98</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1445" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1445">
+        <v>666.65</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1446" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1446">
+        <v>1032.9833333333329</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1447" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1447">
+        <v>565.66666666666663</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1448" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1448">
+        <v>1303.7825</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1449" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1449">
+        <v>26437.161428571431</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1450" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1450">
+        <v>19443.2775</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1451" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1451">
+        <v>21930.516250000001</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1452" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1452">
+        <v>16196.23857142857</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1453" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1453">
+        <v>5040.33</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1454" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1454">
+        <v>3314.71</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1455" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1455">
+        <v>19863.056666666671</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1456" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1456">
+        <v>24783.040000000001</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1457" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1457">
+        <v>5234.2433333333329</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1458" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1458">
+        <v>27530.506249999999</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1459" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1459">
+        <v>3132.6325000000002</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1460" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1460">
+        <v>11589.6425</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1461" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1461">
+        <v>2649.502</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1462" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1462">
+        <v>996.83500000000004</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1463" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1463">
+        <v>14168.196250000001</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1464" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1464">
+        <v>3375.0462499999999</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1465" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1465">
+        <v>205.30500000000001</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1466" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1466">
+        <v>735.10333333333335</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1467" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1467">
+        <v>2795.9650000000001</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1468" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1468">
+        <v>2585.2150000000001</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1469" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1469">
+        <v>4015.666666666667</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1470" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1470">
+        <v>327.05</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1471" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1471">
+        <v>1929.3887500000001</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1472" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1472">
+        <v>130.70750000000001</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1473" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1473">
+        <v>156.2233333333333</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1474" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1474">
+        <v>294.23</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1475" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1475">
+        <v>220</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1476" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1477" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1477">
+        <v>212.95</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1478" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1478">
+        <v>157.94999999999999</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1479" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1479">
+        <v>25.5</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1480" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1480">
+        <v>25.5</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1481" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1481">
+        <v>109.95</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1482" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1482">
+        <v>83.45</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1483" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1483">
+        <v>558</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1484" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1484">
+        <v>500</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1485" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1485">
+        <v>57</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1486" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1486">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1487" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1487">
+        <v>683.99</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1488" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1488">
+        <v>358.49333333333328</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1489" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1489">
+        <v>1444.0925</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1490" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1490">
+        <v>800</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1491" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1491">
+        <v>1000</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1492" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1492">
+        <v>750</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1493" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1493">
+        <v>2500</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1494" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1494">
+        <v>750</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1495" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1495">
+        <v>1000</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1496" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1496">
+        <v>1000</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1497" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1497">
+        <v>750</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1498" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1498">
+        <v>2000</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1499" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1499">
+        <v>1500</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1500" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1500">
+        <v>7000</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1501" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1501">
+        <v>2240000</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1502" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1502">
+        <v>2722000</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1503" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1503">
+        <v>1399000</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1504" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1504">
+        <v>215</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1505" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1505">
+        <v>16597.353333333329</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1506" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1506">
+        <v>275.12</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1507" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1507">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1508" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1508">
+        <v>54.99</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1509" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1509">
+        <v>27.71</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1510" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1510">
+        <v>57.07</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1511" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1511">
+        <v>988.4799999999999</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1512" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1512">
+        <v>1</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1513" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1513">
+        <v>1</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1514" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1514">
+        <v>1.25</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1515" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1515">
+        <v>150</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1516" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1516">
+        <v>175</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1517" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1517">
+        <v>47</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1518" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1518">
+        <v>11235.6</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1519" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1519">
+        <v>59.76</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1520" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1520">
+        <v>35</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1521" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1521">
+        <v>35</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1522" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1522">
+        <v>780</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1523" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1523">
+        <v>35</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1524" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1524">
+        <v>35</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1525" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1525">
+        <v>2.42</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1526" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1526">
+        <v>54.5</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1527" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1527">
+        <v>379</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1528" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1528">
+        <v>838</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1529" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1529">
+        <v>35</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1530" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1530">
+        <v>123.49</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1531" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1531">
+        <v>176.42</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1532" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1532">
+        <v>302.82</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1533" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1533">
+        <v>22444.560000000001</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1534" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1534">
+        <v>595.52200000000005</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1535" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1535">
+        <v>472.49374999999998</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1536" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1536">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1537" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1537">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1538" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1538">
+        <v>260</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1539" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>620</v>
+      </c>
+      <c r="D1539">
+        <v>650</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1540" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>622</v>
+      </c>
+      <c r="D1540">
+        <v>22824.715</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1541" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1541">
+        <v>25346.8125</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1542" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>626</v>
+      </c>
+      <c r="D1542">
+        <v>1424.36</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1543" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>628</v>
+      </c>
+      <c r="D1543">
+        <v>6988.8675000000003</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1544" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1544">
+        <v>3960.0174999999999</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1545" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1545">
+        <v>756.7</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1546" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>634</v>
+      </c>
+      <c r="D1546">
+        <v>3420</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1547" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>636</v>
+      </c>
+      <c r="D1547">
+        <v>1317.16</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1548" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1548">
+        <v>3189.7733333333331</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1549" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1549">
+        <v>1165.4012499999999</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1550" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>642</v>
+      </c>
+      <c r="D1550">
+        <v>1114.4475</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1551" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1551">
+        <v>1.25</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1552" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1552">
+        <v>835</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1553" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>648</v>
+      </c>
+      <c r="D1553">
+        <v>1364</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1554" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1554">
+        <v>75000</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1555" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1555">
+        <v>250</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1556" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>654</v>
+      </c>
+      <c r="D1556">
+        <v>569</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1557" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1557">
+        <v>299</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1558" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1558">
+        <v>299</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1559" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1559">
+        <v>50</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1560" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1560">
+        <v>190.95249999999999</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1561">
+        <v>201.30125000000001</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1562">
+        <v>793.87285714285713</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1564">
+        <v>170</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>671</v>
+      </c>
+      <c r="D1565">
+        <v>59.95</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1566">
+        <v>59.95</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1567">
+        <v>164.95</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1568">
+        <v>79.95</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1569">
+        <v>54.95</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1570">
+        <v>11490</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1571">
+        <v>17490</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1572">
+        <v>36.859000000000002</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>686</v>
+      </c>
+      <c r="D1573">
+        <v>271.459</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1574">
+        <v>44.709000000000003</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1575">
+        <v>264000</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1576">
+        <v>356000</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1577">
+        <v>660</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1578">
+        <v>96196</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1579">
+        <v>204000</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>698</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>702</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1583" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1584" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>704</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1585" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>706</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1586" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1587" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>710</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1588" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1589" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1590" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>715</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1591" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>717</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1592" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1593" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1593">
+        <v>555</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1594" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1594">
+        <v>6.5</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1595" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1595">
+        <v>3380</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1596" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1596">
+        <v>350</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1596" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1597" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1597">
+        <v>800</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1598" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1598">
+        <v>300</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1598" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1599" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1599">
+        <v>1863.8025</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1600" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1600">
+        <v>377.92857142857139</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1601" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1601">
+        <v>1193.93</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1602" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1602">
+        <v>193.25</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1602" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1603" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1603">
+        <v>351.61</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1604" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1604">
+        <v>1963.66</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1604" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1605" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1605">
+        <v>205.185</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1605" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1606" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1606">
+        <v>242.84</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1606" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1607" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1607">
+        <v>1492.16875</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1608" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1608">
+        <v>656.95</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1609" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>751</v>
+      </c>
+      <c r="D1609">
+        <v>960.86875000000009</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1609" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1610" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1610">
+        <v>133.0577777777778</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1611" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>756</v>
+      </c>
+      <c r="D1611">
+        <v>393.67750000000001</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1612" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1612">
+        <v>599.47</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1613" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>760</v>
+      </c>
+      <c r="D1613">
+        <v>152.47999999999999</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1614" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>762</v>
+      </c>
+      <c r="D1614">
+        <v>3033.64</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1615" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1615">
+        <v>3539.2262500000002</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1615" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1616" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>766</v>
+      </c>
+      <c r="D1616">
+        <v>2275.146666666667</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1617" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1617">
+        <v>1377.3166666666671</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1618" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1618">
+        <v>1463.85</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1618" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1619" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1619">
+        <v>11661.40333333333</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1619" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1620" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1620">
+        <v>5330.88</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1621" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1621">
+        <v>5000</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1622" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1622">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1622" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1623" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1623">
+        <v>20.687000000000001</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1624" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1624">
+        <v>44.732999999999997</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1625" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1625">
+        <v>40</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1625" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1626" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1626">
+        <v>834</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1626" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1627" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1627">
+        <v>1489</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1628" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>789</v>
+      </c>
+      <c r="D1628">
+        <v>2500</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1629" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>790</v>
+      </c>
+      <c r="D1629">
+        <v>2000</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -30478,7 +36873,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA7046C7-6D7E-40A0-8FDA-BA19939DB3A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF1EAD3-FEE8-4994-89E2-D7C75A983084}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/Fiyat_Veritabani.xlsx
+++ b/Fiyat_Veritabani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1629"/>
+  <dimension ref="A1:G1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43893,10 +43893,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>0111101</t>
-        </is>
+      <c r="B1503" t="n">
+        <v>111101</v>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
@@ -43928,10 +43926,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>0111201</t>
-        </is>
+      <c r="B1504" t="n">
+        <v>111201</v>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
@@ -43963,10 +43959,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>0111208</t>
-        </is>
+      <c r="B1505" t="n">
+        <v>111208</v>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
@@ -43998,10 +43992,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>0111209</t>
-        </is>
+      <c r="B1506" t="n">
+        <v>111209</v>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
@@ -44033,10 +44025,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>0111301</t>
-        </is>
+      <c r="B1507" t="n">
+        <v>111301</v>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
@@ -44068,10 +44058,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>0111401</t>
-        </is>
+      <c r="B1508" t="n">
+        <v>111401</v>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
@@ -44103,10 +44091,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>0111402</t>
-        </is>
+      <c r="B1509" t="n">
+        <v>111402</v>
       </c>
       <c r="C1509" t="inlineStr">
         <is>
@@ -44138,10 +44124,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>0111404</t>
-        </is>
+      <c r="B1510" t="n">
+        <v>111404</v>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
@@ -44173,10 +44157,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>0111405</t>
-        </is>
+      <c r="B1511" t="n">
+        <v>111405</v>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
@@ -44208,10 +44190,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>0111408</t>
-        </is>
+      <c r="B1512" t="n">
+        <v>111408</v>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
@@ -44243,10 +44223,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>0111411</t>
-        </is>
+      <c r="B1513" t="n">
+        <v>111411</v>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
@@ -44278,10 +44256,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>0111415</t>
-        </is>
+      <c r="B1514" t="n">
+        <v>111415</v>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
@@ -44313,10 +44289,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>0111501</t>
-        </is>
+      <c r="B1515" t="n">
+        <v>111501</v>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
@@ -44348,10 +44322,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>0111502</t>
-        </is>
+      <c r="B1516" t="n">
+        <v>111502</v>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
@@ -44383,10 +44355,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>0111602</t>
-        </is>
+      <c r="B1517" t="n">
+        <v>111602</v>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
@@ -44418,10 +44388,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>0112201</t>
-        </is>
+      <c r="B1518" t="n">
+        <v>112201</v>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
@@ -44453,10 +44421,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>0112401</t>
-        </is>
+      <c r="B1519" t="n">
+        <v>112401</v>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
@@ -44488,10 +44454,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>0112501</t>
-        </is>
+      <c r="B1520" t="n">
+        <v>112501</v>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
@@ -44523,10 +44487,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>0112602</t>
-        </is>
+      <c r="B1521" t="n">
+        <v>112602</v>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
@@ -44558,10 +44520,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>0112701</t>
-        </is>
+      <c r="B1522" t="n">
+        <v>112701</v>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
@@ -44593,10 +44553,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>0112702</t>
-        </is>
+      <c r="B1523" t="n">
+        <v>112702</v>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
@@ -44628,10 +44586,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>0112703</t>
-        </is>
+      <c r="B1524" t="n">
+        <v>112703</v>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
@@ -44663,10 +44619,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>0112709</t>
-        </is>
+      <c r="B1525" t="n">
+        <v>112709</v>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
@@ -44698,10 +44652,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>0113101</t>
-        </is>
+      <c r="B1526" t="n">
+        <v>113101</v>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
@@ -44733,10 +44685,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>0113301</t>
-        </is>
+      <c r="B1527" t="n">
+        <v>113301</v>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
@@ -44768,10 +44718,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>0114101</t>
-        </is>
+      <c r="B1528" t="n">
+        <v>114101</v>
       </c>
       <c r="C1528" t="inlineStr">
         <is>
@@ -44803,10 +44751,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>0114301</t>
-        </is>
+      <c r="B1529" t="n">
+        <v>114301</v>
       </c>
       <c r="C1529" t="inlineStr">
         <is>
@@ -44838,10 +44784,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>0114304</t>
-        </is>
+      <c r="B1530" t="n">
+        <v>114304</v>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
@@ -44873,10 +44817,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>0114401</t>
-        </is>
+      <c r="B1531" t="n">
+        <v>114401</v>
       </c>
       <c r="C1531" t="inlineStr">
         <is>
@@ -44908,10 +44850,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>0114402</t>
-        </is>
+      <c r="B1532" t="n">
+        <v>114402</v>
       </c>
       <c r="C1532" t="inlineStr">
         <is>
@@ -44943,10 +44883,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>0114403</t>
-        </is>
+      <c r="B1533" t="n">
+        <v>114403</v>
       </c>
       <c r="C1533" t="inlineStr">
         <is>
@@ -44978,10 +44916,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>0114404</t>
-        </is>
+      <c r="B1534" t="n">
+        <v>114404</v>
       </c>
       <c r="C1534" t="inlineStr">
         <is>
@@ -45013,10 +44949,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>0114501</t>
-        </is>
+      <c r="B1535" t="n">
+        <v>114501</v>
       </c>
       <c r="C1535" t="inlineStr">
         <is>
@@ -45048,10 +44982,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>0115101</t>
-        </is>
+      <c r="B1536" t="n">
+        <v>115101</v>
       </c>
       <c r="C1536" t="inlineStr">
         <is>
@@ -45083,10 +45015,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>0115201</t>
-        </is>
+      <c r="B1537" t="n">
+        <v>115201</v>
       </c>
       <c r="C1537" t="inlineStr">
         <is>
@@ -45118,10 +45048,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>0115301</t>
-        </is>
+      <c r="B1538" t="n">
+        <v>115301</v>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
@@ -45153,10 +45081,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>0115302</t>
-        </is>
+      <c r="B1539" t="n">
+        <v>115302</v>
       </c>
       <c r="C1539" t="inlineStr">
         <is>
@@ -45188,10 +45114,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>0116101</t>
-        </is>
+      <c r="B1540" t="n">
+        <v>116101</v>
       </c>
       <c r="C1540" t="inlineStr">
         <is>
@@ -45223,10 +45147,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>0116102</t>
-        </is>
+      <c r="B1541" t="n">
+        <v>116102</v>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
@@ -45258,10 +45180,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>0116105</t>
-        </is>
+      <c r="B1542" t="n">
+        <v>116105</v>
       </c>
       <c r="C1542" t="inlineStr">
         <is>
@@ -45293,10 +45213,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>0116107</t>
-        </is>
+      <c r="B1543" t="n">
+        <v>116107</v>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
@@ -45328,10 +45246,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>0116110</t>
-        </is>
+      <c r="B1544" t="n">
+        <v>116110</v>
       </c>
       <c r="C1544" t="inlineStr">
         <is>
@@ -45363,10 +45279,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>0116112</t>
-        </is>
+      <c r="B1545" t="n">
+        <v>116112</v>
       </c>
       <c r="C1545" t="inlineStr">
         <is>
@@ -45398,10 +45312,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>0116121</t>
-        </is>
+      <c r="B1546" t="n">
+        <v>116121</v>
       </c>
       <c r="C1546" t="inlineStr">
         <is>
@@ -45433,10 +45345,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>0116122</t>
-        </is>
+      <c r="B1547" t="n">
+        <v>116122</v>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
@@ -45468,10 +45378,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>0116128</t>
-        </is>
+      <c r="B1548" t="n">
+        <v>116128</v>
       </c>
       <c r="C1548" t="inlineStr">
         <is>
@@ -45503,10 +45411,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>0116130</t>
-        </is>
+      <c r="B1549" t="n">
+        <v>116130</v>
       </c>
       <c r="C1549" t="inlineStr">
         <is>
@@ -45538,10 +45444,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>0116131</t>
-        </is>
+      <c r="B1550" t="n">
+        <v>116131</v>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
@@ -45573,10 +45477,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1551" t="inlineStr">
-        <is>
-          <t>0116134</t>
-        </is>
+      <c r="B1551" t="n">
+        <v>116134</v>
       </c>
       <c r="C1551" t="inlineStr">
         <is>
@@ -45608,10 +45510,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1552" t="inlineStr">
-        <is>
-          <t>0116135</t>
-        </is>
+      <c r="B1552" t="n">
+        <v>116135</v>
       </c>
       <c r="C1552" t="inlineStr">
         <is>
@@ -45643,10 +45543,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1553" t="inlineStr">
-        <is>
-          <t>0116137</t>
-        </is>
+      <c r="B1553" t="n">
+        <v>116137</v>
       </c>
       <c r="C1553" t="inlineStr">
         <is>
@@ -45678,10 +45576,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>0116201</t>
-        </is>
+      <c r="B1554" t="n">
+        <v>116201</v>
       </c>
       <c r="C1554" t="inlineStr">
         <is>
@@ -45713,10 +45609,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1555" t="inlineStr">
-        <is>
-          <t>0116202</t>
-        </is>
+      <c r="B1555" t="n">
+        <v>116202</v>
       </c>
       <c r="C1555" t="inlineStr">
         <is>
@@ -45748,10 +45642,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1556" t="inlineStr">
-        <is>
-          <t>0116203</t>
-        </is>
+      <c r="B1556" t="n">
+        <v>116203</v>
       </c>
       <c r="C1556" t="inlineStr">
         <is>
@@ -45783,10 +45675,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1557" t="inlineStr">
-        <is>
-          <t>0116204</t>
-        </is>
+      <c r="B1557" t="n">
+        <v>116204</v>
       </c>
       <c r="C1557" t="inlineStr">
         <is>
@@ -45818,10 +45708,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1558" t="inlineStr">
-        <is>
-          <t>0116206</t>
-        </is>
+      <c r="B1558" t="n">
+        <v>116206</v>
       </c>
       <c r="C1558" t="inlineStr">
         <is>
@@ -45853,10 +45741,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1559" t="inlineStr">
-        <is>
-          <t>0116207</t>
-        </is>
+      <c r="B1559" t="n">
+        <v>116207</v>
       </c>
       <c r="C1559" t="inlineStr">
         <is>
@@ -45888,10 +45774,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1560" t="inlineStr">
-        <is>
-          <t>0116208</t>
-        </is>
+      <c r="B1560" t="n">
+        <v>116208</v>
       </c>
       <c r="C1560" t="inlineStr">
         <is>
@@ -45923,10 +45807,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1561" t="inlineStr">
-        <is>
-          <t>0116209</t>
-        </is>
+      <c r="B1561" t="n">
+        <v>116209</v>
       </c>
       <c r="C1561" t="inlineStr">
         <is>
@@ -45958,10 +45840,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1562" t="inlineStr">
-        <is>
-          <t>0116210</t>
-        </is>
+      <c r="B1562" t="n">
+        <v>116210</v>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
@@ -45993,10 +45873,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1563" t="inlineStr">
-        <is>
-          <t>0116212</t>
-        </is>
+      <c r="B1563" t="n">
+        <v>116212</v>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
@@ -46028,10 +45906,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1564" t="inlineStr">
-        <is>
-          <t>0117114</t>
-        </is>
+      <c r="B1564" t="n">
+        <v>117114</v>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
@@ -46063,10 +45939,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>0117115</t>
-        </is>
+      <c r="B1565" t="n">
+        <v>117115</v>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
@@ -46098,10 +45972,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1566" t="inlineStr">
-        <is>
-          <t>0117117</t>
-        </is>
+      <c r="B1566" t="n">
+        <v>117117</v>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
@@ -46133,10 +46005,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1567" t="inlineStr">
-        <is>
-          <t>0117121</t>
-        </is>
+      <c r="B1567" t="n">
+        <v>117121</v>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
@@ -46168,10 +46038,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>0117122</t>
-        </is>
+      <c r="B1568" t="n">
+        <v>117122</v>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
@@ -46203,10 +46071,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1569" t="inlineStr">
-        <is>
-          <t>0117125</t>
-        </is>
+      <c r="B1569" t="n">
+        <v>117125</v>
       </c>
       <c r="C1569" t="inlineStr">
         <is>
@@ -46238,10 +46104,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1570" t="inlineStr">
-        <is>
-          <t>0117130</t>
-        </is>
+      <c r="B1570" t="n">
+        <v>117130</v>
       </c>
       <c r="C1570" t="inlineStr">
         <is>
@@ -46273,10 +46137,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1571" t="inlineStr">
-        <is>
-          <t>0117134</t>
-        </is>
+      <c r="B1571" t="n">
+        <v>117134</v>
       </c>
       <c r="C1571" t="inlineStr">
         <is>
@@ -46308,10 +46170,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1572" t="inlineStr">
-        <is>
-          <t>0117135</t>
-        </is>
+      <c r="B1572" t="n">
+        <v>117135</v>
       </c>
       <c r="C1572" t="inlineStr">
         <is>
@@ -46343,10 +46203,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1573" t="inlineStr">
-        <is>
-          <t>0117139</t>
-        </is>
+      <c r="B1573" t="n">
+        <v>117139</v>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
@@ -46378,10 +46236,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1574" t="inlineStr">
-        <is>
-          <t>0117146</t>
-        </is>
+      <c r="B1574" t="n">
+        <v>117146</v>
       </c>
       <c r="C1574" t="inlineStr">
         <is>
@@ -46413,10 +46269,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1575" t="inlineStr">
-        <is>
-          <t>0117148</t>
-        </is>
+      <c r="B1575" t="n">
+        <v>117148</v>
       </c>
       <c r="C1575" t="inlineStr">
         <is>
@@ -46448,10 +46302,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1576" t="inlineStr">
-        <is>
-          <t>0117150</t>
-        </is>
+      <c r="B1576" t="n">
+        <v>117150</v>
       </c>
       <c r="C1576" t="inlineStr">
         <is>
@@ -46483,10 +46335,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1577" t="inlineStr">
-        <is>
-          <t>0117151</t>
-        </is>
+      <c r="B1577" t="n">
+        <v>117151</v>
       </c>
       <c r="C1577" t="inlineStr">
         <is>
@@ -46518,10 +46368,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1578" t="inlineStr">
-        <is>
-          <t>0117152</t>
-        </is>
+      <c r="B1578" t="n">
+        <v>117152</v>
       </c>
       <c r="C1578" t="inlineStr">
         <is>
@@ -46553,10 +46401,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1579" t="inlineStr">
-        <is>
-          <t>0117153</t>
-        </is>
+      <c r="B1579" t="n">
+        <v>117153</v>
       </c>
       <c r="C1579" t="inlineStr">
         <is>
@@ -46588,10 +46434,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1580" t="inlineStr">
-        <is>
-          <t>0117155</t>
-        </is>
+      <c r="B1580" t="n">
+        <v>117155</v>
       </c>
       <c r="C1580" t="inlineStr">
         <is>
@@ -46623,10 +46467,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1581" t="inlineStr">
-        <is>
-          <t>0117158</t>
-        </is>
+      <c r="B1581" t="n">
+        <v>117158</v>
       </c>
       <c r="C1581" t="inlineStr">
         <is>
@@ -46658,10 +46500,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1582" t="inlineStr">
-        <is>
-          <t>0117160</t>
-        </is>
+      <c r="B1582" t="n">
+        <v>117160</v>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
@@ -46693,10 +46533,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1583" t="inlineStr">
-        <is>
-          <t>0117161</t>
-        </is>
+      <c r="B1583" t="n">
+        <v>117161</v>
       </c>
       <c r="C1583" t="inlineStr">
         <is>
@@ -46728,10 +46566,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1584" t="inlineStr">
-        <is>
-          <t>0117162</t>
-        </is>
+      <c r="B1584" t="n">
+        <v>117162</v>
       </c>
       <c r="C1584" t="inlineStr">
         <is>
@@ -46763,10 +46599,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1585" t="inlineStr">
-        <is>
-          <t>0117164</t>
-        </is>
+      <c r="B1585" t="n">
+        <v>117164</v>
       </c>
       <c r="C1585" t="inlineStr">
         <is>
@@ -46798,10 +46632,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1586" t="inlineStr">
-        <is>
-          <t>0117174</t>
-        </is>
+      <c r="B1586" t="n">
+        <v>117174</v>
       </c>
       <c r="C1586" t="inlineStr">
         <is>
@@ -46833,10 +46665,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1587" t="inlineStr">
-        <is>
-          <t>0117201</t>
-        </is>
+      <c r="B1587" t="n">
+        <v>117201</v>
       </c>
       <c r="C1587" t="inlineStr">
         <is>
@@ -46868,10 +46698,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1588" t="inlineStr">
-        <is>
-          <t>0117401</t>
-        </is>
+      <c r="B1588" t="n">
+        <v>117401</v>
       </c>
       <c r="C1588" t="inlineStr">
         <is>
@@ -46903,10 +46731,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1589" t="inlineStr">
-        <is>
-          <t>0117402</t>
-        </is>
+      <c r="B1589" t="n">
+        <v>117402</v>
       </c>
       <c r="C1589" t="inlineStr">
         <is>
@@ -46938,10 +46764,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1590" t="inlineStr">
-        <is>
-          <t>0117403</t>
-        </is>
+      <c r="B1590" t="n">
+        <v>117403</v>
       </c>
       <c r="C1590" t="inlineStr">
         <is>
@@ -46973,10 +46797,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1591" t="inlineStr">
-        <is>
-          <t>0117501</t>
-        </is>
+      <c r="B1591" t="n">
+        <v>117501</v>
       </c>
       <c r="C1591" t="inlineStr">
         <is>
@@ -47008,10 +46830,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1592" t="inlineStr">
-        <is>
-          <t>0117504</t>
-        </is>
+      <c r="B1592" t="n">
+        <v>117504</v>
       </c>
       <c r="C1592" t="inlineStr">
         <is>
@@ -47043,10 +46863,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1593" t="inlineStr">
-        <is>
-          <t>0117505</t>
-        </is>
+      <c r="B1593" t="n">
+        <v>117505</v>
       </c>
       <c r="C1593" t="inlineStr">
         <is>
@@ -47078,10 +46896,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>0117506</t>
-        </is>
+      <c r="B1594" t="n">
+        <v>117506</v>
       </c>
       <c r="C1594" t="inlineStr">
         <is>
@@ -47113,10 +46929,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1595" t="inlineStr">
-        <is>
-          <t>0117507</t>
-        </is>
+      <c r="B1595" t="n">
+        <v>117507</v>
       </c>
       <c r="C1595" t="inlineStr">
         <is>
@@ -47148,10 +46962,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1596" t="inlineStr">
-        <is>
-          <t>0118101</t>
-        </is>
+      <c r="B1596" t="n">
+        <v>118101</v>
       </c>
       <c r="C1596" t="inlineStr">
         <is>
@@ -47183,10 +46995,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1597" t="inlineStr">
-        <is>
-          <t>0118102</t>
-        </is>
+      <c r="B1597" t="n">
+        <v>118102</v>
       </c>
       <c r="C1597" t="inlineStr">
         <is>
@@ -47218,10 +47028,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1598" t="inlineStr">
-        <is>
-          <t>0118201</t>
-        </is>
+      <c r="B1598" t="n">
+        <v>118201</v>
       </c>
       <c r="C1598" t="inlineStr">
         <is>
@@ -47253,10 +47061,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1599" t="inlineStr">
-        <is>
-          <t>0118203</t>
-        </is>
+      <c r="B1599" t="n">
+        <v>118203</v>
       </c>
       <c r="C1599" t="inlineStr">
         <is>
@@ -47288,10 +47094,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1600" t="inlineStr">
-        <is>
-          <t>0118204</t>
-        </is>
+      <c r="B1600" t="n">
+        <v>118204</v>
       </c>
       <c r="C1600" t="inlineStr">
         <is>
@@ -47323,10 +47127,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1601" t="inlineStr">
-        <is>
-          <t>0118205</t>
-        </is>
+      <c r="B1601" t="n">
+        <v>118205</v>
       </c>
       <c r="C1601" t="inlineStr">
         <is>
@@ -47358,10 +47160,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1602" t="inlineStr">
-        <is>
-          <t>0118206</t>
-        </is>
+      <c r="B1602" t="n">
+        <v>118206</v>
       </c>
       <c r="C1602" t="inlineStr">
         <is>
@@ -47393,10 +47193,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1603" t="inlineStr">
-        <is>
-          <t>0118302</t>
-        </is>
+      <c r="B1603" t="n">
+        <v>118302</v>
       </c>
       <c r="C1603" t="inlineStr">
         <is>
@@ -47428,10 +47226,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1604" t="inlineStr">
-        <is>
-          <t>0118303</t>
-        </is>
+      <c r="B1604" t="n">
+        <v>118303</v>
       </c>
       <c r="C1604" t="inlineStr">
         <is>
@@ -47463,10 +47259,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1605" t="inlineStr">
-        <is>
-          <t>0118305</t>
-        </is>
+      <c r="B1605" t="n">
+        <v>118305</v>
       </c>
       <c r="C1605" t="inlineStr">
         <is>
@@ -47498,10 +47292,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1606" t="inlineStr">
-        <is>
-          <t>0118311</t>
-        </is>
+      <c r="B1606" t="n">
+        <v>118311</v>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
@@ -47533,10 +47325,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1607" t="inlineStr">
-        <is>
-          <t>0118312</t>
-        </is>
+      <c r="B1607" t="n">
+        <v>118312</v>
       </c>
       <c r="C1607" t="inlineStr">
         <is>
@@ -47568,10 +47358,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1608" t="inlineStr">
-        <is>
-          <t>0118401</t>
-        </is>
+      <c r="B1608" t="n">
+        <v>118401</v>
       </c>
       <c r="C1608" t="inlineStr">
         <is>
@@ -47603,10 +47391,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1609" t="inlineStr">
-        <is>
-          <t>0119001</t>
-        </is>
+      <c r="B1609" t="n">
+        <v>119001</v>
       </c>
       <c r="C1609" t="inlineStr">
         <is>
@@ -47638,10 +47424,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1610" t="inlineStr">
-        <is>
-          <t>0119002</t>
-        </is>
+      <c r="B1610" t="n">
+        <v>119002</v>
       </c>
       <c r="C1610" t="inlineStr">
         <is>
@@ -47673,10 +47457,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1611" t="inlineStr">
-        <is>
-          <t>0119004</t>
-        </is>
+      <c r="B1611" t="n">
+        <v>119004</v>
       </c>
       <c r="C1611" t="inlineStr">
         <is>
@@ -47708,10 +47490,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1612" t="inlineStr">
-        <is>
-          <t>0119005</t>
-        </is>
+      <c r="B1612" t="n">
+        <v>119005</v>
       </c>
       <c r="C1612" t="inlineStr">
         <is>
@@ -47743,10 +47523,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>0119008</t>
-        </is>
+      <c r="B1613" t="n">
+        <v>119008</v>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
@@ -47778,10 +47556,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>0119009</t>
-        </is>
+      <c r="B1614" t="n">
+        <v>119009</v>
       </c>
       <c r="C1614" t="inlineStr">
         <is>
@@ -47813,10 +47589,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1615" t="inlineStr">
-        <is>
-          <t>0119012</t>
-        </is>
+      <c r="B1615" t="n">
+        <v>119012</v>
       </c>
       <c r="C1615" t="inlineStr">
         <is>
@@ -47848,10 +47622,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>0119014</t>
-        </is>
+      <c r="B1616" t="n">
+        <v>119014</v>
       </c>
       <c r="C1616" t="inlineStr">
         <is>
@@ -47883,10 +47655,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>0119015</t>
-        </is>
+      <c r="B1617" t="n">
+        <v>119015</v>
       </c>
       <c r="C1617" t="inlineStr">
         <is>
@@ -47918,10 +47688,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>0121101</t>
-        </is>
+      <c r="B1618" t="n">
+        <v>121101</v>
       </c>
       <c r="C1618" t="inlineStr">
         <is>
@@ -47953,10 +47721,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>0121102</t>
-        </is>
+      <c r="B1619" t="n">
+        <v>121102</v>
       </c>
       <c r="C1619" t="inlineStr">
         <is>
@@ -47988,10 +47754,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>0121201</t>
-        </is>
+      <c r="B1620" t="n">
+        <v>121201</v>
       </c>
       <c r="C1620" t="inlineStr">
         <is>
@@ -48023,10 +47787,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>0121202</t>
-        </is>
+      <c r="B1621" t="n">
+        <v>121202</v>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
@@ -48058,10 +47820,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>0121301</t>
-        </is>
+      <c r="B1622" t="n">
+        <v>121301</v>
       </c>
       <c r="C1622" t="inlineStr">
         <is>
@@ -48093,10 +47853,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>0122101</t>
-        </is>
+      <c r="B1623" t="n">
+        <v>122101</v>
       </c>
       <c r="C1623" t="inlineStr">
         <is>
@@ -48128,10 +47886,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>0122102</t>
-        </is>
+      <c r="B1624" t="n">
+        <v>122102</v>
       </c>
       <c r="C1624" t="inlineStr">
         <is>
@@ -48163,10 +47919,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>0122202</t>
-        </is>
+      <c r="B1625" t="n">
+        <v>122202</v>
       </c>
       <c r="C1625" t="inlineStr">
         <is>
@@ -48198,10 +47952,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>0122203</t>
-        </is>
+      <c r="B1626" t="n">
+        <v>122203</v>
       </c>
       <c r="C1626" t="inlineStr">
         <is>
@@ -48233,10 +47985,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>0122204</t>
-        </is>
+      <c r="B1627" t="n">
+        <v>122204</v>
       </c>
       <c r="C1627" t="inlineStr">
         <is>
@@ -48268,10 +48018,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>0122205</t>
-        </is>
+      <c r="B1628" t="n">
+        <v>122205</v>
       </c>
       <c r="C1628" t="inlineStr">
         <is>
@@ -48303,10 +48051,8 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>0122301</t>
-        </is>
+      <c r="B1629" t="n">
+        <v>122301</v>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
@@ -48329,6 +48075,4451 @@
       <c r="G1629" t="inlineStr">
         <is>
           <t>08:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>0111101</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>Pirinç</t>
+        </is>
+      </c>
+      <c r="D1630" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1630" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-baldo-pirinc-1-kg-p-f6a53</t>
+        </is>
+      </c>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>0111201</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>Buğday Unu</t>
+        </is>
+      </c>
+      <c r="D1631" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1631" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sinangil-tam-bugday-unu-1-kg-p-4c8cdd</t>
+        </is>
+      </c>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>0111208</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>Bebek Sütü (Toz Karışım)</t>
+        </is>
+      </c>
+      <c r="D1632" t="n">
+        <v>389.95</v>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/bebelac-bebek-devam-sutu-1-400-g-p-4cec83</t>
+        </is>
+      </c>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>0111209</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>Bulgur</t>
+        </is>
+      </c>
+      <c r="D1633" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1633" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/torku-pilavlik-bulgur-25-kg-p-1067d5</t>
+        </is>
+      </c>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>0111301</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>Ekmek</t>
+        </is>
+      </c>
+      <c r="D1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sofra-ekmek-adet-p-4e2000</t>
+        </is>
+      </c>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>0111401</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>Bisküvi</t>
+        </is>
+      </c>
+      <c r="D1635" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ulker-altinbasak-tahil-cipsi-50-g-p-6af7bd</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>0111402</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Kraker</t>
+        </is>
+      </c>
+      <c r="D1636" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/wefood-feslegenli-kraker-40-g-p-4cea14</t>
+        </is>
+      </c>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>0111404</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>Gofret</t>
+        </is>
+      </c>
+      <c r="D1637" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/eti-karam-gurme-bitter-cikolata-kremali-gofret-3lu-150-g-p-6d5053</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>0111405</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>Pasta</t>
+        </is>
+      </c>
+      <c r="D1638" t="n">
+        <v>549.9</v>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/yas-pasta-no1-p-4e208a</t>
+        </is>
+      </c>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>0111408</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>Kek</t>
+        </is>
+      </c>
+      <c r="D1639" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/eti-browni-klasik-cikolatali-findikli-kek-200-g-p-6b47f6</t>
+        </is>
+      </c>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>0111411</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>Baklava</t>
+        </is>
+      </c>
+      <c r="D1640" t="n">
+        <v>644.9</v>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/fistikli-baklava-kg-p-4e20d5</t>
+        </is>
+      </c>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>0111415</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>Ekmek Hamuru (Yufka)</t>
+        </is>
+      </c>
+      <c r="D1641" t="n">
+        <v>169.95</v>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/el-acmasi-yufka-kg-p-4d8032</t>
+        </is>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>0111501</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>Makarna</t>
+        </is>
+      </c>
+      <c r="D1642" t="n">
+        <v>145.95</v>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1642" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/barilla-tagliatelle-makarna-450-g-p-4cc168</t>
+        </is>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>0111502</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>Şehriye</t>
+        </is>
+      </c>
+      <c r="D1643" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1643" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/filiz-arpa-sehriye-500-g-p-4cc1d5</t>
+        </is>
+      </c>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>0111602</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>Tahıl Gevreği</t>
+        </is>
+      </c>
+      <c r="D1644" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1644" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nestle-cheerios-balli-tahil-gevregi-225-g-p-4db053</t>
+        </is>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>0112201</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>Dana Eti</t>
+        </is>
+      </c>
+      <c r="D1645" t="n">
+        <v>939.95</v>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/dana-stragonof-kg-but-eti-p-17d9f88</t>
+        </is>
+      </c>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>0112401</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>Kuzu Eti</t>
+        </is>
+      </c>
+      <c r="D1646" t="n">
+        <v>1085.95</v>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kuzu-biftek-kg-but-eti-dilimlenmis-p-16e5d69</t>
+        </is>
+      </c>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>0112501</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>Tavuk Eti</t>
+        </is>
+      </c>
+      <c r="D1647" t="n">
+        <v>249.95</v>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1647" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/banvit-pilic-bonfile-kg-p-2be844b</t>
+        </is>
+      </c>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>0112602</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>Sakatat</t>
+        </is>
+      </c>
+      <c r="D1648" t="n">
+        <v>744.95</v>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/dana-ciger-kg-p-18ce199</t>
+        </is>
+      </c>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>0112701</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>Sucuk</t>
+        </is>
+      </c>
+      <c r="D1649" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1649" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/namet-dana-kasap-sucuk-250-g-p-d8d1b8</t>
+        </is>
+      </c>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>0112702</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>Sosis</t>
+        </is>
+      </c>
+      <c r="D1650" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/banvit-jumbo-sosis-330-g-p-ce0849</t>
+        </is>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>0112703</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>Salam</t>
+        </is>
+      </c>
+      <c r="D1651" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/pinar-ac-bitir-hindi-salam-taze-dilimlenmis-10-dilim-75-g-p-d749cc</t>
+        </is>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>0112709</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>Hazır Et Yemekleri</t>
+        </is>
+      </c>
+      <c r="D1652" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1652" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/gurmepack-hunkar-begendi-250-g-p-121eece</t>
+        </is>
+      </c>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>0113101</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>Balık</t>
+        </is>
+      </c>
+      <c r="D1653" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/super-kartal-tarama-90-g-p-1131eb3</t>
+        </is>
+      </c>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>0113301</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>Konserve Balık</t>
+        </is>
+      </c>
+      <c r="D1654" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-iri-parcali-ton-baligi-2-x-160-g-p-8a1bec</t>
+        </is>
+      </c>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>0114101</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>Süt</t>
+        </is>
+      </c>
+      <c r="D1655" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/icim-rahat-laktozsuz-sut-1-l-p-a80012</t>
+        </is>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>0114301</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>Yoğurt</t>
+        </is>
+      </c>
+      <c r="D1656" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sutas-kaymaksiz-yogurt-1000-g-p-bebd9c</t>
+        </is>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>0114304</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>Hazır Sütlü Tatlılar</t>
+        </is>
+      </c>
+      <c r="D1657" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/eker-supangle-150-g-p-b06b76</t>
+        </is>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>0114401</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>Beyaz Peynir</t>
+        </is>
+      </c>
+      <c r="D1658" t="n">
+        <v>309.9</v>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ekici-beyaz-peynir-kg-p-98d9b9</t>
+        </is>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>0114402</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>Kaşar Peyniri</t>
+        </is>
+      </c>
+      <c r="D1659" t="n">
+        <v>430.5</v>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/bahcivan-kasar-peyniri-taze-700-g-p-9a1da1</t>
+        </is>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>0114403</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>Tulum Peyniri</t>
+        </is>
+      </c>
+      <c r="D1660" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ariste-tulum-peyniri-250-g-p-98e0fb</t>
+        </is>
+      </c>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>0114404</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>Krem Peynir</t>
+        </is>
+      </c>
+      <c r="D1661" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/pinar-krem-peynir-300-g-p-9d2b88</t>
+        </is>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>0114501</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>Yumurta</t>
+        </is>
+      </c>
+      <c r="D1662" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1662" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/keskinoglu-15li-l-buyuk-boy-yumurta-63-72-g-p-1312d28</t>
+        </is>
+      </c>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>0115101</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>Tereyağı (Kahvaltılık)</t>
+        </is>
+      </c>
+      <c r="D1663" t="n">
+        <v>379</v>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1663" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-tereyagi-1-kg-p-b75d84</t>
+        </is>
+      </c>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>0115201</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>Margarin</t>
+        </is>
+      </c>
+      <c r="D1664" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1664" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/luna-tereyagi-lezzeti-kase-margarin-250-g-p-402a66</t>
+        </is>
+      </c>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>0115301</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>Zeytinyağı</t>
+        </is>
+      </c>
+      <c r="D1665" t="n">
+        <v>449.95</v>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1665" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/aivalos-sizma-zeytinyagi-century-750-ml-p-3f05ec</t>
+        </is>
+      </c>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>0115302</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>Ayçiçek Yağı</t>
+        </is>
+      </c>
+      <c r="D1666" t="n">
+        <v>384.5</v>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1666" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-aycicek-yagi-5-l-koseli-pet-p-3eb728</t>
+        </is>
+      </c>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>0116101</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>Portakal</t>
+        </is>
+      </c>
+      <c r="D1667" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1667" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/portakal-kg-p-1a0a047</t>
+        </is>
+      </c>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>0116102</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>Üzüm</t>
+        </is>
+      </c>
+      <c r="D1668" t="n">
+        <v>129.95</v>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1668" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/uzum-red-globe-kg-p-1a11d4b</t>
+        </is>
+      </c>
+      <c r="G1668" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>0116105</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>Armut</t>
+        </is>
+      </c>
+      <c r="D1669" t="n">
+        <v>129.95</v>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1669" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/armut-deveci-kg-p-19c5e68</t>
+        </is>
+      </c>
+      <c r="G1669" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>0116107</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>Ayva</t>
+        </is>
+      </c>
+      <c r="D1670" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1670" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ayva-kg-p-19c71f0</t>
+        </is>
+      </c>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>0116110</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>Çilek</t>
+        </is>
+      </c>
+      <c r="D1671" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kiraz-yer-altin-cilek-100-g-p-1a43a48</t>
+        </is>
+      </c>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>0116112</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>Elma</t>
+        </is>
+      </c>
+      <c r="D1672" t="n">
+        <v>139.95</v>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1672" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/elma-granny-smith-kg-p-19e0448</t>
+        </is>
+      </c>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>0116121</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>Karpuz</t>
+        </is>
+      </c>
+      <c r="D1673" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/oneo-karpuz-aromali-draje-sakiz-21-g-p-6ca51e</t>
+        </is>
+      </c>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>0116122</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>Kavun</t>
+        </is>
+      </c>
+      <c r="D1674" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1674" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kavun-kislik-kg-p-19f2175</t>
+        </is>
+      </c>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>0116128</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>Kivi</t>
+        </is>
+      </c>
+      <c r="D1675" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1675" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kivi-kg-p-19fcd50</t>
+        </is>
+      </c>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>0116130</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>Limon</t>
+        </is>
+      </c>
+      <c r="D1676" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1676" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/limon-kg-p-19ff462</t>
+        </is>
+      </c>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>0116131</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>Mandalina</t>
+        </is>
+      </c>
+      <c r="D1677" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1677" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/mandalina-naturel-kg-p-1a05de4</t>
+        </is>
+      </c>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>0116134</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>Muz</t>
+        </is>
+      </c>
+      <c r="D1678" t="n">
+        <v>119.95</v>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1678" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/muz-ithal-kg-p-1a01f58</t>
+        </is>
+      </c>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>0116135</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>Nar</t>
+        </is>
+      </c>
+      <c r="D1679" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1679" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nar-kg-p-1a06990</t>
+        </is>
+      </c>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>0116137</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>Şeftali</t>
+        </is>
+      </c>
+      <c r="D1680" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1680" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/seftali-kg-p-1a0b7b0?srsltid=AfmBOor77vAwo3SDnOB7SoigtL6hHAAJsb9wos9_2fSF2DqojT_uVR0D</t>
+        </is>
+      </c>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>0116201</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>Badem İçi</t>
+        </is>
+      </c>
+      <c r="D1681" t="n">
+        <v>89</v>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1681" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kavrulmus-badem-ici-150-g-p-7b4bab</t>
+        </is>
+      </c>
+      <c r="G1681" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>0116202</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>Ceviz İçi</t>
+        </is>
+      </c>
+      <c r="D1682" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1682" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ceviz-ici-kg-p-7b706e</t>
+        </is>
+      </c>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>0116203</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>Fındık İçi</t>
+        </is>
+      </c>
+      <c r="D1683" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1683" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kavrulmus-findik-ici-150g-p-7b4ae1</t>
+        </is>
+      </c>
+      <c r="G1683" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>0116204</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>Antep Fıstığı</t>
+        </is>
+      </c>
+      <c r="D1684" t="n">
+        <v>294.95</v>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1684" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/master-nut-kabuklu-antep-fistigi-140-g-p-7b49d9</t>
+        </is>
+      </c>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>0116206</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>Yer Fıstığı</t>
+        </is>
+      </c>
+      <c r="D1685" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1685" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-tuzlu-yer-fistigi-180-g-p-7b4947</t>
+        </is>
+      </c>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>0116207</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>Leblebi</t>
+        </is>
+      </c>
+      <c r="D1686" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-cifte-kavrulmus-sari-leblebi-200g-p-7b4ab1</t>
+        </is>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>0116208</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>Ay Çekirdeği</t>
+        </is>
+      </c>
+      <c r="D1687" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1687" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-bol-tuzlu-kavrulmus-siyah-aycekirdek-180-g-p-7b716a</t>
+        </is>
+      </c>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>0116209</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Kabak Çekirdeği</t>
+        </is>
+      </c>
+      <c r="D1688" t="n">
+        <v>95.95</v>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-kabak-cekirdegi-180-g-p-7b8e7c</t>
+        </is>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>0116210</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Kuru Üzüm</t>
+        </is>
+      </c>
+      <c r="D1689" t="n">
+        <v>45.95</v>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1689" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-sultaniye-kuru-uzum-140-g-p-7b704f</t>
+        </is>
+      </c>
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>0116212</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>Kuru Kayısı</t>
+        </is>
+      </c>
+      <c r="D1690" t="n">
+        <v>154.95</v>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tadim-kuru-kayisi-140-g-p-7b703f</t>
+        </is>
+      </c>
+      <c r="G1690" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>0117114</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>Çarliston Biber</t>
+        </is>
+      </c>
+      <c r="D1691" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1691" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/biber-carliston-kg-p-1ac0638</t>
+        </is>
+      </c>
+      <c r="G1691" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>0117115</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>Dolmalık Biber</t>
+        </is>
+      </c>
+      <c r="D1692" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1692" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/biber-dolmalik-kg-p-1ac0a20</t>
+        </is>
+      </c>
+      <c r="G1692" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>0117117</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>Sivri Biber</t>
+        </is>
+      </c>
+      <c r="D1693" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1693" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/biber-sivri-kg-p-1ac11f0</t>
+        </is>
+      </c>
+      <c r="G1693" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>0117121</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>Dereotu</t>
+        </is>
+      </c>
+      <c r="D1694" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1694" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/dereotu-adet-p-1ac2969</t>
+        </is>
+      </c>
+      <c r="G1694" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>0117122</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>Domates</t>
+        </is>
+      </c>
+      <c r="D1695" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1695" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/domates-kokteyl-kg-p-1aca278</t>
+        </is>
+      </c>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>0117125</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>Taze Fasulye</t>
+        </is>
+      </c>
+      <c r="D1696" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1696" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/superfresh-taze-fasulye-450-g-p-1038d63</t>
+        </is>
+      </c>
+      <c r="G1696" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>0117130</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>Havuç</t>
+        </is>
+      </c>
+      <c r="D1697" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1697" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/havuc-beypazari-paket-kg-p-1ad36f9</t>
+        </is>
+      </c>
+      <c r="G1697" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>0117134</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>Ispanak</t>
+        </is>
+      </c>
+      <c r="D1698" t="n">
+        <v>79.95</v>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1698" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ispanak-kg-p-1ad6243</t>
+        </is>
+      </c>
+      <c r="G1698" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>0117135</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>Kabak</t>
+        </is>
+      </c>
+      <c r="D1699" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1699" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kabak-sakiz-kg-p-1adb000</t>
+        </is>
+      </c>
+      <c r="G1699" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>0117139</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>Karnabahar</t>
+        </is>
+      </c>
+      <c r="D1700" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1700" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/karnabahar-kg-p-1add710</t>
+        </is>
+      </c>
+      <c r="G1700" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>0117146</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>Kuru Soğan</t>
+        </is>
+      </c>
+      <c r="D1701" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1701" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sogan-kuru-dokme-kg-p-1b1a7a0</t>
+        </is>
+      </c>
+      <c r="G1701" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>0117148</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>Beyaz Lahana</t>
+        </is>
+      </c>
+      <c r="D1702" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1702" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lahana-beyaz-kg-p-1ae7350</t>
+        </is>
+      </c>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>0117150</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>Kırmızı Lahana</t>
+        </is>
+      </c>
+      <c r="D1703" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1703" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lahana-kirmizi-kg-p-1aec170</t>
+        </is>
+      </c>
+      <c r="G1703" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>0117151</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>Mantar</t>
+        </is>
+      </c>
+      <c r="D1704" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1704" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kultur-mantari-400-g-paket-p-1aeea13</t>
+        </is>
+      </c>
+      <c r="G1704" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>0117152</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>Kıvırcık</t>
+        </is>
+      </c>
+      <c r="D1705" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1705" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/salata-kivircik-adet-p-1b0bd99</t>
+        </is>
+      </c>
+      <c r="G1705" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>0117153</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>Maydanoz</t>
+        </is>
+      </c>
+      <c r="D1706" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1706" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/maydanoz-adet-p-1af36a9</t>
+        </is>
+      </c>
+      <c r="G1706" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>0117155</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>Nane</t>
+        </is>
+      </c>
+      <c r="D1707" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1707" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nane-adet-p-1af84c9</t>
+        </is>
+      </c>
+      <c r="G1707" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>0117158</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>Patlıcan</t>
+        </is>
+      </c>
+      <c r="D1708" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1708" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/patlican-bostan-kg-p-1afd6c8</t>
+        </is>
+      </c>
+      <c r="G1708" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>0117160</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>Pırasa</t>
+        </is>
+      </c>
+      <c r="D1709" t="n">
+        <v>37.46</v>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1709" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-pirasa-paket-kg-p-1b05449</t>
+        </is>
+      </c>
+      <c r="G1709" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>0117161</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>Roka</t>
+        </is>
+      </c>
+      <c r="D1710" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1710" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/roka-demet-p-1b06f29</t>
+        </is>
+      </c>
+      <c r="G1710" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>0117162</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>Salatalık</t>
+        </is>
+      </c>
+      <c r="D1711" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1711" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/hiyar-kg-p-1ad3ad0</t>
+        </is>
+      </c>
+      <c r="G1711" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>0117164</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>Sarımsak</t>
+        </is>
+      </c>
+      <c r="D1712" t="n">
+        <v>204.95</v>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1712" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/heinz-sarimsakli-mayonez-400-g-p-89b2e5</t>
+        </is>
+      </c>
+      <c r="G1712" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>0117174</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>Kırmızı Turp</t>
+        </is>
+      </c>
+      <c r="D1713" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1713" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/turp-kirmizi-kg-p-1b26af9</t>
+        </is>
+      </c>
+      <c r="G1713" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>0117201</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>Patates</t>
+        </is>
+      </c>
+      <c r="D1714" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1714" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/patates-kg-p-1afabf4</t>
+        </is>
+      </c>
+      <c r="G1714" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>0117401</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>Kuru Fasulye</t>
+        </is>
+      </c>
+      <c r="D1715" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1715" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/hasata-derinkuyu-kuru-fasulyesi-1-kg-p-f9826</t>
+        </is>
+      </c>
+      <c r="G1715" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>0117402</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>Nohut</t>
+        </is>
+      </c>
+      <c r="D1716" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1716" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-nohut-1000-g-p-100579</t>
+        </is>
+      </c>
+      <c r="G1716" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>0117403</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>Mercimek</t>
+        </is>
+      </c>
+      <c r="D1717" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1717" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kirmizi-mercimek-1-kg-p-1053a2</t>
+        </is>
+      </c>
+      <c r="G1717" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>0117501</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>Konserveler</t>
+        </is>
+      </c>
+      <c r="D1718" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1718" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-bezelye-konservesi-830-g-p-89dfee</t>
+        </is>
+      </c>
+      <c r="G1718" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>0117504</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>Turşu</t>
+        </is>
+      </c>
+      <c r="D1719" t="n">
+        <v>119.95</v>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1719" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/berrak-ankara-cubuk-salatalik-tursusu-350-g-p-f73216</t>
+        </is>
+      </c>
+      <c r="G1719" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>0117505</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>Salça</t>
+        </is>
+      </c>
+      <c r="D1720" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1720" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tat-domates-salcasi-1500-g-p-89e068</t>
+        </is>
+      </c>
+      <c r="G1720" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>0117506</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>Zeytin</t>
+        </is>
+      </c>
+      <c r="D1721" t="n">
+        <v>239</v>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1721" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/cem-ayvalik-tas-kirma-zeytin-291-350-adkg-p-f476c2</t>
+        </is>
+      </c>
+      <c r="G1721" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>0117507</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>Cipsler</t>
+        </is>
+      </c>
+      <c r="D1722" t="n">
+        <v>48.95</v>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1722" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lays-kasar-peyniri-ve-izgara-sogan-tadinda-125-g-p-4d84f5</t>
+        </is>
+      </c>
+      <c r="G1722" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>0118101</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>Toz Şeker</t>
+        </is>
+      </c>
+      <c r="D1723" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1723" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-toz-seker-1-kg-p-3281b4</t>
+        </is>
+      </c>
+      <c r="G1723" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>0118102</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>Kesme Şeker</t>
+        </is>
+      </c>
+      <c r="D1724" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1724" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kup-seker-1-kg-p-32afa9</t>
+        </is>
+      </c>
+      <c r="G1724" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>0118201</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>Reçel</t>
+        </is>
+      </c>
+      <c r="D1725" t="n">
+        <v>210</v>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1725" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/antalya-recelcisi-7-turuncu-meyve-receli-290-g-p-6b9406</t>
+        </is>
+      </c>
+      <c r="G1725" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>0118203</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>Bal</t>
+        </is>
+      </c>
+      <c r="D1726" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1726" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/balparmak-yuksek-yayla-cicek-bali-460-g-p-6be1cb</t>
+        </is>
+      </c>
+      <c r="G1726" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>0118204</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>Pekmez</t>
+        </is>
+      </c>
+      <c r="D1727" t="n">
+        <v>297.95</v>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1727" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/koska-pekmez-cam-kavanoz-800-g-p-6c1be5</t>
+        </is>
+      </c>
+      <c r="G1727" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>0118205</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>Tahin Helvası</t>
+        </is>
+      </c>
+      <c r="D1728" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1728" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/torku-sade-tahin-helvasi-200-g-p-6c097e</t>
+        </is>
+      </c>
+      <c r="G1728" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>0118206</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>Fındık Ezmesi</t>
+        </is>
+      </c>
+      <c r="D1729" t="n">
+        <v>217.95</v>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1729" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/fiskobirlik-findik-ezmesi-180-g-p-6d1e6e</t>
+        </is>
+      </c>
+      <c r="G1729" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>0118302</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>Çikolata Tablet</t>
+        </is>
+      </c>
+      <c r="D1730" t="n">
+        <v>154.95</v>
+      </c>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1730" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/godiva-masterpieces-bitter-cikolata-tablet-86-g-p-6b8f25</t>
+        </is>
+      </c>
+      <c r="G1730" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>0118303</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>Çikolata Krem</t>
+        </is>
+      </c>
+      <c r="D1731" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1731" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/ulker-hobby-krem-cikolata-350g-p-6d19ef</t>
+        </is>
+      </c>
+      <c r="G1731" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>0118305</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>Lokum</t>
+        </is>
+      </c>
+      <c r="D1732" t="n">
+        <v>493.95</v>
+      </c>
+      <c r="E1732" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1732" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/lokum-atolyesi-dubai-sultan-lokumu-250-g-p-6b48e0</t>
+        </is>
+      </c>
+      <c r="G1732" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>0118311</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>Sakız</t>
+        </is>
+      </c>
+      <c r="D1733" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="E1733" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1733" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nazar-damla-sakizi-aromali-sekersiz-sakiz-3lu-21-g-p-6ca5f9</t>
+        </is>
+      </c>
+      <c r="G1733" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>0118312</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>Kağıtlı Şeker</t>
+        </is>
+      </c>
+      <c r="D1734" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="E1734" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1734" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/olips-orman-meyveleri-aromali-28-g-p-6c81b9</t>
+        </is>
+      </c>
+      <c r="G1734" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>0118401</t>
+        </is>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>Dondurma</t>
+        </is>
+      </c>
+      <c r="D1735" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="E1735" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1735" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/algida-usta-usulu-cifte-dovulmus-sade-dondurma-500-ml-p-b08bf4</t>
+        </is>
+      </c>
+      <c r="G1735" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>0119001</t>
+        </is>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>Baharat</t>
+        </is>
+      </c>
+      <c r="D1736" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E1736" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1736" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-karabiber-75-g-p-5bb597</t>
+        </is>
+      </c>
+      <c r="G1736" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>0119002</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>Tuz</t>
+        </is>
+      </c>
+      <c r="D1737" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1737" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/billur-tuz-rafine-iyotlu-sofra-tuzu-750-g-p-5bdfee</t>
+        </is>
+      </c>
+      <c r="G1737" t="inlineStr">
+        <is>
+          <t>11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>0119004</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>Kabartma Maddeleri</t>
+        </is>
+      </c>
+      <c r="D1738" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E1738" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1738" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/droetker-hamur-kabartma-tozu-10lu-paket-100-g-p-5c7d69</t>
+        </is>
+      </c>
+      <c r="G1738" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>0119005</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>Sirke</t>
+        </is>
+      </c>
+      <c r="D1739" t="n">
+        <v>166.95</v>
+      </c>
+      <c r="E1739" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1739" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kuhne-balsamik-sirke-250-ml-p-5c07d0</t>
+        </is>
+      </c>
+      <c r="G1739" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>0119008</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>Ketçap</t>
+        </is>
+      </c>
+      <c r="D1740" t="n">
+        <v>99.95</v>
+      </c>
+      <c r="E1740" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1740" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tat-ketcap-pickle-390-g-p-f890fb</t>
+        </is>
+      </c>
+      <c r="G1740" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>0119009</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>Mayonez</t>
+        </is>
+      </c>
+      <c r="D1741" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E1741" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1741" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/hellmanns-mayonez-385-g-p-89a292</t>
+        </is>
+      </c>
+      <c r="G1741" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>0119012</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>Tahin</t>
+        </is>
+      </c>
+      <c r="D1742" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1742" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1742" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-tahin-600-g-p-6c08e7</t>
+        </is>
+      </c>
+      <c r="G1742" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>0119014</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>Hazır Çorbalar</t>
+        </is>
+      </c>
+      <c r="D1743" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1743" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/knorr-hazir-corba-mercimek-76-g-p-4c99ce</t>
+        </is>
+      </c>
+      <c r="G1743" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>0119015</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>Hazır Pakette Toz Tatlılar (Puding)</t>
+        </is>
+      </c>
+      <c r="D1744" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/droetker-vanilyali-puding-toz-karisimi-120-g-p-6c574f</t>
+        </is>
+      </c>
+      <c r="G1744" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>0121101</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>Kahve</t>
+        </is>
+      </c>
+      <c r="D1745" t="n">
+        <v>83.45</v>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/kurukahveci-mehmet-efendi-turk-kahvesi-100-g-p-310151</t>
+        </is>
+      </c>
+      <c r="G1745" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>0121102</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>Hazır Kahve</t>
+        </is>
+      </c>
+      <c r="D1746" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/nescafe-3u-1-arada-original-175-g-p-312b30</t>
+        </is>
+      </c>
+      <c r="G1746" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>0121201</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>Çay</t>
+        </is>
+      </c>
+      <c r="D1747" t="n">
+        <v>295.95</v>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1747" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/caykur-tiryaki-cayi-1-kg-p-2f7993</t>
+        </is>
+      </c>
+      <c r="G1747" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>0121202</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>Bitki ve Meyve Çayı (Poşet)</t>
+        </is>
+      </c>
+      <c r="D1748" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1748" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/teekanne-papatya-ve-balli-bitki-cayi-20li-30-g-p-2fc2ae</t>
+        </is>
+      </c>
+      <c r="G1748" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>0121301</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>Kakao</t>
+        </is>
+      </c>
+      <c r="D1749" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1749" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/migros-kakao-50-g-p-4cef00</t>
+        </is>
+      </c>
+      <c r="G1749" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>0122101</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="D1750" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1750" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/abant-dogal-kaynak-suyu-5-l-p-7afd20</t>
+        </is>
+      </c>
+      <c r="G1750" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>0122102</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>Maden Suyu ve Sodası</t>
+        </is>
+      </c>
+      <c r="D1751" t="n">
+        <v>121.95</v>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1751" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/avoya-blend-visne-limon-maden-suyu-4-x-250-ml-p-7ac063</t>
+        </is>
+      </c>
+      <c r="G1751" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>0122202</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>Gazoz</t>
+        </is>
+      </c>
+      <c r="D1752" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1752" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/camlica-gazoz-15-l-p-7a9c48</t>
+        </is>
+      </c>
+      <c r="G1752" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>0122203</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>Kola</t>
+        </is>
+      </c>
+      <c r="D1753" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1753" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/coca-cola-orijinal-tat-pet-1-l-p-7a3bcc</t>
+        </is>
+      </c>
+      <c r="G1753" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>0122204</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>Soğuk Çay</t>
+        </is>
+      </c>
+      <c r="D1754" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1754" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/zuber-seftali-aromali-cayli-icecek-250-ml-p-7ad727</t>
+        </is>
+      </c>
+      <c r="G1754" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>0122205</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayran </t>
+        </is>
+      </c>
+      <c r="D1755" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1755" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1755" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/sutas-200-ml-ayran-p-2bebd3b</t>
+        </is>
+      </c>
+      <c r="G1755" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>0122301</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>Meyve Suyu</t>
+        </is>
+      </c>
+      <c r="D1756" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="E1756" t="inlineStr">
+        <is>
+          <t>Sanal Market</t>
+        </is>
+      </c>
+      <c r="F1756" t="inlineStr">
+        <is>
+          <t>https://www.migros.com.tr/tamek-100-karisik-meyve-suyu-1-lt-p-7af8f1</t>
+        </is>
+      </c>
+      <c r="G1756" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
     </row>
